--- a/web-app/BeplantingslijstRobijnsbos.xlsx
+++ b/web-app/BeplantingslijstRobijnsbos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sterr004/Projecten/Private/RobijnsBos/web-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B8E34-1287-B941-8DEC-B9AFF40E94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8FAAF2-3AA8-974A-96A7-5DFA4265628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Beplantingslijst Robijnsbos" sheetId="1" r:id="rId1"/>
     <sheet name="Bestaande beplanting Robijnsbos" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Beplantingslijst Robijnsbos'!$A$1:$K$620</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="925">
   <si>
     <t>Nederlandse naam</t>
   </si>
@@ -179,6 +182,9 @@
     <t>5m</t>
   </si>
   <si>
+    <t>(Fruit)boom</t>
+  </si>
+  <si>
     <t>Zweedse kersenpit gezaaid door Rein Hintzen en Philine vd Vegte</t>
   </si>
   <si>
@@ -299,6 +305,12 @@
     <t>Magnolia</t>
   </si>
   <si>
+    <t>Magnolia liliflora 'Nigra'</t>
+  </si>
+  <si>
+    <t>Beverboom (Magnolia liliiflora 'Nigra'), besteld bij Directplant 2511/2024 geplant.</t>
+  </si>
+  <si>
     <t>Magnolia kobus var. Kobus</t>
   </si>
   <si>
@@ -312,15 +324,6 @@
   </si>
   <si>
     <t>Evergreen Magnolia (Magnolia grandiflora 'Gallisoniere') 100363611 A12 43995 Plantpaspoort AMagnolia B-NL767467671 C nic D NL. A Magnolia Grand Gallissoniensis B IT-09-04249 C PT 001/03140/2024 D IT</t>
-  </si>
-  <si>
-    <t>Magnolia liliflora 'Nigra'</t>
-  </si>
-  <si>
-    <t>Beverboom (Magnolia liliiflora 'Nigra'), besteld bij Directplant 2511/2024 geplant.</t>
-  </si>
-  <si>
-    <t>Beverboom (Magnolia kobus ) - 8/10 cm, besteld bij Directplant 2511/2024 geplant.</t>
   </si>
   <si>
     <t>Pruim</t>
@@ -2916,9 +2919,6 @@
   <si>
     <t>Cytisus scoparius</t>
   </si>
-  <si>
-    <t>Fruitboom</t>
-  </si>
 </sst>
 </file>
 
@@ -2927,7 +2927,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3178,15 +3178,8 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF474747"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3321,13 +3314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47E"/>
-        <bgColor rgb="FF93C47D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47E"/>
+        <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FFBDBDBD"/>
       </patternFill>
     </fill>
@@ -3426,7 +3413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3540,6 +3527,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -3552,10 +3543,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3823,30 +3810,26 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3979,7 +3962,7 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF93C47E"/>
+      <color rgb="FF93C47D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4257,8 +4240,8 @@
   </sheetPr>
   <dimension ref="A1:AA690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:K544"/>
+    <sheetView tabSelected="1" topLeftCell="A644" workbookViewId="0">
+      <selection activeCell="F659" sqref="F659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5026,10 +5009,10 @@
         <v>51</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -5050,7 +5033,7 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -5081,7 +5064,7 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="25">
         <v>-5</v>
@@ -5092,7 +5075,7 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" s="26">
         <v>2024</v>
@@ -5101,13 +5084,13 @@
         <v>35</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -5128,7 +5111,7 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="25">
         <v>-3</v>
@@ -5139,7 +5122,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" s="26">
         <v>2024</v>
@@ -5151,10 +5134,10 @@
         <v>46</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -5175,7 +5158,7 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="25">
         <v>-7</v>
@@ -5186,7 +5169,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="26">
         <v>2024</v>
@@ -5198,10 +5181,10 @@
         <v>46</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -5222,7 +5205,7 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="25">
         <v>-7</v>
@@ -5233,7 +5216,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" s="26">
         <v>2024</v>
@@ -5245,10 +5228,10 @@
         <v>46</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -5269,7 +5252,7 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="25">
         <v>-7</v>
@@ -5280,7 +5263,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" s="26">
         <v>2024</v>
@@ -5292,10 +5275,10 @@
         <v>46</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -5316,7 +5299,7 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="25">
         <v>-7</v>
@@ -5327,7 +5310,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" s="26">
         <v>2024</v>
@@ -5339,10 +5322,10 @@
         <v>46</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -5363,7 +5346,7 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="25">
         <v>-7</v>
@@ -5374,7 +5357,7 @@
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" s="26">
         <v>2024</v>
@@ -5386,10 +5369,10 @@
         <v>46</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -5410,7 +5393,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5441,7 +5424,7 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -5472,7 +5455,7 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="28">
         <v>-2</v>
@@ -5483,22 +5466,22 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="31">
         <v>2019</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -5519,7 +5502,7 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="28">
         <v>-1</v>
@@ -5530,22 +5513,22 @@
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G29" s="31">
         <v>2019</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -5566,7 +5549,7 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="28">
         <v>0.5</v>
@@ -5577,22 +5560,22 @@
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" s="31">
         <v>2019</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -5613,7 +5596,7 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="28">
         <v>2</v>
@@ -5624,22 +5607,22 @@
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" s="31">
         <v>2019</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -5660,7 +5643,7 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="28">
         <v>3</v>
@@ -5671,22 +5654,22 @@
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G32" s="31">
         <v>2019</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -5707,7 +5690,7 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" s="28">
         <v>4</v>
@@ -5718,22 +5701,22 @@
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G33" s="31">
         <v>2019</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -5754,7 +5737,7 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="28">
         <v>5.5</v>
@@ -5765,7 +5748,7 @@
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
       <c r="F34" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G34" s="31">
         <v>1990</v>
@@ -5780,7 +5763,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -5801,7 +5784,7 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -5832,7 +5815,7 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
       <c r="A36" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" s="28">
         <v>7.5</v>
@@ -5843,22 +5826,22 @@
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G36" s="31">
         <v>2017</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -5879,7 +5862,7 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1">
         <v>8.5</v>
@@ -5888,27 +5871,27 @@
         <v>27</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" s="31">
         <v>2024</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" s="28">
         <v>9</v>
@@ -5919,22 +5902,22 @@
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G38" s="31">
         <v>2017</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -5955,7 +5938,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="28">
         <v>10</v>
@@ -5966,22 +5949,22 @@
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G39" s="31">
         <v>2017</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -6002,7 +5985,7 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" s="28">
         <v>11.5</v>
@@ -6013,22 +5996,22 @@
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
       <c r="F40" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G40" s="31">
         <v>2017</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -6049,7 +6032,7 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1">
       <c r="A41" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" s="28">
         <v>12</v>
@@ -6060,22 +6043,22 @@
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
       <c r="F41" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G41" s="31">
         <v>2017</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -6096,7 +6079,7 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1">
       <c r="A42" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42" s="28">
         <v>12.5</v>
@@ -6107,22 +6090,22 @@
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G42" s="31">
         <v>2017</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -6143,7 +6126,7 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1">
       <c r="A43" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" s="28">
         <v>13</v>
@@ -6154,22 +6137,22 @@
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
       <c r="F43" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G43" s="31">
         <v>2017</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -6190,7 +6173,7 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1">
       <c r="A44" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" s="28">
         <v>14</v>
@@ -6201,22 +6184,22 @@
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
       <c r="F44" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G44" s="31">
         <v>2017</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -6237,7 +6220,7 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1">
       <c r="A45" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" s="28">
         <v>15</v>
@@ -6248,22 +6231,22 @@
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
       <c r="F45" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G45" s="31">
         <v>2017</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -6284,7 +6267,7 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1">
       <c r="A46" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" s="28">
         <v>15.5</v>
@@ -6295,22 +6278,22 @@
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G46" s="31">
         <v>2017</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -6331,7 +6314,7 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1">
       <c r="A47" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" s="28">
         <v>16</v>
@@ -6342,22 +6325,22 @@
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
       <c r="F47" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G47" s="31">
         <v>2017</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -6378,7 +6361,7 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1">
       <c r="A48" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" s="28">
         <v>17</v>
@@ -6389,22 +6372,22 @@
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G48" s="31">
         <v>2017</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -6425,7 +6408,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -6456,7 +6439,7 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -6487,7 +6470,7 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1">
       <c r="A51" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="35">
         <v>5</v>
@@ -6498,7 +6481,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
       <c r="F51" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G51" s="36">
         <v>2022</v>
@@ -6507,13 +6490,13 @@
         <v>23</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K51" s="37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2">
@@ -6536,7 +6519,7 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1">
       <c r="A52" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="35">
         <v>5.5</v>
@@ -6547,22 +6530,22 @@
       <c r="D52" s="35"/>
       <c r="E52" s="30"/>
       <c r="F52" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G52" s="31">
         <v>2024</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>925</v>
+        <v>31</v>
       </c>
       <c r="K52" s="37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -6581,9 +6564,9 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="52">
+    <row r="53" spans="1:27" ht="26">
       <c r="A53" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="39">
         <v>5.5</v>
@@ -6593,44 +6576,44 @@
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="40"/>
-      <c r="F53" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="41">
+      <c r="F53" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="31">
         <v>2024</v>
       </c>
-      <c r="H53" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>67</v>
+      <c r="H53" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K53" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="L53" s="45"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="46"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
     </row>
     <row r="54" spans="1:27" ht="26">
-      <c r="A54" s="30" t="s">
-        <v>91</v>
+      <c r="A54" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="B54" s="35">
         <v>5.5</v>
@@ -6641,13 +6624,13 @@
       <c r="D54" s="35"/>
       <c r="E54" s="30"/>
       <c r="F54" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G54" s="31">
         <v>2024</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I54" s="32" t="s">
         <v>46</v>
@@ -6656,7 +6639,7 @@
         <v>31</v>
       </c>
       <c r="K54" s="37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6676,8 +6659,8 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" spans="1:27" ht="26">
-      <c r="A55" s="30" t="s">
-        <v>91</v>
+      <c r="A55" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="B55" s="35">
         <v>5.5</v>
@@ -6688,22 +6671,22 @@
       <c r="D55" s="35"/>
       <c r="E55" s="30"/>
       <c r="F55" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G55" s="31">
         <v>2024</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>925</v>
+        <v>31</v>
       </c>
       <c r="K55" s="37" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6724,7 +6707,7 @@
     </row>
     <row r="56" spans="1:27" ht="26">
       <c r="A56" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="39">
         <v>5.5</v>
@@ -6734,44 +6717,44 @@
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="40"/>
-      <c r="F56" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="41">
+      <c r="F56" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="31">
         <v>2024</v>
       </c>
-      <c r="H56" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" s="43" t="s">
-        <v>46</v>
+      <c r="H56" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K56" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="L56" s="45"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46"/>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="46"/>
+        <v>52</v>
+      </c>
+      <c r="K56" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="L56" s="41"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="42"/>
     </row>
     <row r="57" spans="1:27" ht="52">
       <c r="A57" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="39">
         <v>5.5</v>
@@ -6781,44 +6764,44 @@
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="40"/>
-      <c r="F57" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="41">
+      <c r="F57" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" s="31">
         <v>2024</v>
       </c>
-      <c r="H57" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>67</v>
+      <c r="H57" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K57" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="L57" s="45"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="46"/>
-      <c r="X57" s="46"/>
-      <c r="Y57" s="46"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="46"/>
+        <v>52</v>
+      </c>
+      <c r="K57" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="L57" s="41"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="42"/>
     </row>
     <row r="58" spans="1:27" ht="26">
-      <c r="A58" s="30" t="s">
-        <v>91</v>
+      <c r="A58" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="B58" s="35">
         <v>5.5</v>
@@ -6829,7 +6812,7 @@
       <c r="D58" s="35"/>
       <c r="E58" s="30"/>
       <c r="F58" s="30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G58" s="31">
         <v>2024</v>
@@ -6841,10 +6824,10 @@
         <v>16</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6864,8 +6847,8 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" spans="1:27" ht="26">
-      <c r="A59" s="30" t="s">
-        <v>91</v>
+      <c r="A59" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="B59" s="35">
         <v>5.5</v>
@@ -6876,13 +6859,13 @@
       <c r="D59" s="35"/>
       <c r="E59" s="30"/>
       <c r="F59" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G59" s="31">
         <v>2024</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I59" s="32" t="s">
         <v>46</v>
@@ -6891,7 +6874,7 @@
         <v>31</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -6911,8 +6894,8 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="1:27" ht="26">
-      <c r="A60" s="30" t="s">
-        <v>91</v>
+      <c r="A60" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="B60" s="35">
         <v>5.5</v>
@@ -6923,22 +6906,22 @@
       <c r="D60" s="35"/>
       <c r="E60" s="30"/>
       <c r="F60" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G60" s="31">
         <v>2024</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>925</v>
+        <v>31</v>
       </c>
       <c r="K60" s="37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -6958,8 +6941,8 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:27" ht="52">
-      <c r="A61" s="30" t="s">
-        <v>91</v>
+      <c r="A61" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="B61" s="35">
         <v>5.5</v>
@@ -6970,22 +6953,22 @@
       <c r="D61" s="35"/>
       <c r="E61" s="30"/>
       <c r="F61" s="30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G61" s="31">
         <v>2024</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -7006,7 +6989,7 @@
     </row>
     <row r="62" spans="1:27" ht="26">
       <c r="A62" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="39">
         <v>5.5</v>
@@ -7016,44 +6999,44 @@
       </c>
       <c r="D62" s="39"/>
       <c r="E62" s="40"/>
-      <c r="F62" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="G62" s="41">
+      <c r="F62" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" s="31">
         <v>2024</v>
       </c>
-      <c r="H62" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="I62" s="43" t="s">
-        <v>46</v>
+      <c r="H62" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="L62" s="45"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
-      <c r="X62" s="46"/>
-      <c r="Y62" s="46"/>
-      <c r="Z62" s="46"/>
-      <c r="AA62" s="46"/>
+        <v>52</v>
+      </c>
+      <c r="K62" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="L62" s="41"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="42"/>
     </row>
     <row r="63" spans="1:27" ht="26">
-      <c r="A63" s="30" t="s">
-        <v>91</v>
+      <c r="A63" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="B63" s="35">
         <v>5.5</v>
@@ -7064,7 +7047,7 @@
       <c r="D63" s="35"/>
       <c r="E63" s="30"/>
       <c r="F63" s="30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G63" s="31">
         <v>2024</v>
@@ -7076,10 +7059,10 @@
         <v>16</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K63" s="37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -7098,9 +7081,9 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="26">
+    <row r="64" spans="1:27" ht="52">
       <c r="A64" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="39">
         <v>5.5</v>
@@ -7113,37 +7096,37 @@
       <c r="F64" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G64" s="41">
+      <c r="G64" s="43">
         <v>2024</v>
       </c>
-      <c r="H64" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>46</v>
+      <c r="H64" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K64" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="L64" s="45"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="46"/>
-      <c r="X64" s="46"/>
-      <c r="Y64" s="46"/>
-      <c r="Z64" s="46"/>
-      <c r="AA64" s="46"/>
+        <v>52</v>
+      </c>
+      <c r="K64" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L64" s="41"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="42"/>
+      <c r="Z64" s="42"/>
+      <c r="AA64" s="42"/>
     </row>
     <row r="65" spans="1:27" ht="26">
       <c r="A65" s="30" t="s">
@@ -7170,7 +7153,7 @@
         <v>16</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K65" s="47" t="s">
         <v>102</v>
@@ -7211,13 +7194,13 @@
         <v>1990</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I66" s="32" t="s">
         <v>46</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K66" s="37" t="s">
         <v>103</v>
@@ -7288,7 +7271,7 @@
     </row>
     <row r="68" spans="1:27" ht="14">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" s="35">
         <v>4.5</v>
@@ -7299,7 +7282,7 @@
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
       <c r="F68" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G68" s="31">
         <v>2022</v>
@@ -7311,7 +7294,7 @@
         <v>16</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>107</v>
@@ -7335,7 +7318,7 @@
     </row>
     <row r="69" spans="1:27" ht="14">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" s="35">
         <v>3</v>
@@ -7346,7 +7329,7 @@
       <c r="D69" s="30"/>
       <c r="E69" s="30"/>
       <c r="F69" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G69" s="31">
         <v>2022</v>
@@ -7358,7 +7341,7 @@
         <v>16</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>108</v>
@@ -7399,7 +7382,7 @@
         <v>2024</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I70" s="32" t="s">
         <v>111</v>
@@ -7444,7 +7427,7 @@
         <v>2024</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I71" s="32" t="s">
         <v>111</v>
@@ -7489,7 +7472,7 @@
         <v>2024</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I72" s="32" t="s">
         <v>111</v>
@@ -7658,7 +7641,7 @@
     </row>
     <row r="76" spans="1:27" ht="14">
       <c r="A76" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="35">
         <v>0.5</v>
@@ -7669,7 +7652,7 @@
       <c r="D76" s="30"/>
       <c r="E76" s="30"/>
       <c r="F76" s="49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G76" s="50">
         <v>2016</v>
@@ -7705,7 +7688,7 @@
     </row>
     <row r="77" spans="1:27" ht="14">
       <c r="A77" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="35">
         <v>0.5</v>
@@ -7716,7 +7699,7 @@
       <c r="D77" s="30"/>
       <c r="E77" s="30"/>
       <c r="F77" s="49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G77" s="51">
         <v>2022</v>
@@ -7752,7 +7735,7 @@
     </row>
     <row r="78" spans="1:27" ht="14">
       <c r="A78" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B78" s="35">
         <v>0.5</v>
@@ -7763,7 +7746,7 @@
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
       <c r="F78" s="49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G78" s="22">
         <v>1990</v>
@@ -7814,7 +7797,7 @@
         <v>2025</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I79" s="32" t="s">
         <v>30</v>
@@ -8775,7 +8758,7 @@
         <v>46</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K100" s="37" t="s">
         <v>132</v>
@@ -8822,7 +8805,7 @@
         <v>46</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K101" s="37" t="s">
         <v>134</v>
@@ -9192,7 +9175,7 @@
         <v>46</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K109" s="37" t="s">
         <v>141</v>
@@ -9270,7 +9253,7 @@
         <v>46</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K111" s="37"/>
       <c r="L111" s="2"/>
@@ -9315,7 +9298,7 @@
         <v>46</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K112" s="37"/>
       <c r="L112" s="2"/>
@@ -9360,7 +9343,7 @@
         <v>46</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K113" s="37"/>
       <c r="L113" s="2"/>
@@ -9452,7 +9435,7 @@
         <v>150</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K115" s="37" t="s">
         <v>151</v>
@@ -9476,7 +9459,7 @@
     </row>
     <row r="116" spans="1:27" ht="39">
       <c r="A116" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B116" s="35">
         <v>5.5</v>
@@ -9759,7 +9742,7 @@
         <v>2025</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I122" s="32" t="s">
         <v>51</v>
@@ -9943,7 +9926,7 @@
         <v>2025</v>
       </c>
       <c r="H126" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I126" s="32" t="s">
         <v>51</v>
@@ -10080,7 +10063,7 @@
         <v>2025</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I129" s="32" t="s">
         <v>51</v>
@@ -10151,22 +10134,22 @@
       <c r="I131" s="61"/>
       <c r="J131" s="62"/>
       <c r="K131" s="59"/>
-      <c r="L131" s="46"/>
-      <c r="M131" s="46"/>
-      <c r="N131" s="46"/>
-      <c r="O131" s="46"/>
-      <c r="P131" s="46"/>
-      <c r="Q131" s="46"/>
-      <c r="R131" s="46"/>
-      <c r="S131" s="46"/>
-      <c r="T131" s="46"/>
-      <c r="U131" s="46"/>
-      <c r="V131" s="46"/>
-      <c r="W131" s="46"/>
-      <c r="X131" s="46"/>
-      <c r="Y131" s="46"/>
-      <c r="Z131" s="46"/>
-      <c r="AA131" s="46"/>
+      <c r="L131" s="42"/>
+      <c r="M131" s="42"/>
+      <c r="N131" s="42"/>
+      <c r="O131" s="42"/>
+      <c r="P131" s="42"/>
+      <c r="Q131" s="42"/>
+      <c r="R131" s="42"/>
+      <c r="S131" s="42"/>
+      <c r="T131" s="42"/>
+      <c r="U131" s="42"/>
+      <c r="V131" s="42"/>
+      <c r="W131" s="42"/>
+      <c r="X131" s="42"/>
+      <c r="Y131" s="42"/>
+      <c r="Z131" s="42"/>
+      <c r="AA131" s="42"/>
     </row>
     <row r="132" spans="1:27" ht="14">
       <c r="A132" s="38" t="s">
@@ -10187,7 +10170,7 @@
         <v>1967</v>
       </c>
       <c r="H132" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I132" s="66" t="s">
         <v>115</v>
@@ -10196,22 +10179,22 @@
         <v>31</v>
       </c>
       <c r="K132" s="38"/>
-      <c r="L132" s="46"/>
-      <c r="M132" s="46"/>
-      <c r="N132" s="46"/>
-      <c r="O132" s="46"/>
-      <c r="P132" s="46"/>
-      <c r="Q132" s="46"/>
-      <c r="R132" s="46"/>
-      <c r="S132" s="46"/>
-      <c r="T132" s="46"/>
-      <c r="U132" s="46"/>
-      <c r="V132" s="46"/>
-      <c r="W132" s="46"/>
-      <c r="X132" s="46"/>
-      <c r="Y132" s="46"/>
-      <c r="Z132" s="46"/>
-      <c r="AA132" s="46"/>
+      <c r="L132" s="42"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="42"/>
+      <c r="P132" s="42"/>
+      <c r="Q132" s="42"/>
+      <c r="R132" s="42"/>
+      <c r="S132" s="42"/>
+      <c r="T132" s="42"/>
+      <c r="U132" s="42"/>
+      <c r="V132" s="42"/>
+      <c r="W132" s="42"/>
+      <c r="X132" s="42"/>
+      <c r="Y132" s="42"/>
+      <c r="Z132" s="42"/>
+      <c r="AA132" s="42"/>
     </row>
     <row r="133" spans="1:27" ht="14">
       <c r="A133" s="67" t="s">
@@ -10243,22 +10226,22 @@
       <c r="K133" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="L133" s="46"/>
-      <c r="M133" s="46"/>
-      <c r="N133" s="46"/>
-      <c r="O133" s="46"/>
-      <c r="P133" s="46"/>
-      <c r="Q133" s="46"/>
-      <c r="R133" s="46"/>
-      <c r="S133" s="46"/>
-      <c r="T133" s="46"/>
-      <c r="U133" s="46"/>
-      <c r="V133" s="46"/>
-      <c r="W133" s="46"/>
-      <c r="X133" s="46"/>
-      <c r="Y133" s="46"/>
-      <c r="Z133" s="46"/>
-      <c r="AA133" s="46"/>
+      <c r="L133" s="42"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="42"/>
+      <c r="O133" s="42"/>
+      <c r="P133" s="42"/>
+      <c r="Q133" s="42"/>
+      <c r="R133" s="42"/>
+      <c r="S133" s="42"/>
+      <c r="T133" s="42"/>
+      <c r="U133" s="42"/>
+      <c r="V133" s="42"/>
+      <c r="W133" s="42"/>
+      <c r="X133" s="42"/>
+      <c r="Y133" s="42"/>
+      <c r="Z133" s="42"/>
+      <c r="AA133" s="42"/>
     </row>
     <row r="134" spans="1:27" ht="14">
       <c r="A134" s="38" t="s">
@@ -10279,7 +10262,7 @@
         <v>1967</v>
       </c>
       <c r="H134" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I134" s="66" t="s">
         <v>115</v>
@@ -10288,22 +10271,22 @@
         <v>31</v>
       </c>
       <c r="K134" s="38"/>
-      <c r="L134" s="46"/>
-      <c r="M134" s="46"/>
-      <c r="N134" s="46"/>
-      <c r="O134" s="46"/>
-      <c r="P134" s="46"/>
-      <c r="Q134" s="46"/>
-      <c r="R134" s="46"/>
-      <c r="S134" s="46"/>
-      <c r="T134" s="46"/>
-      <c r="U134" s="46"/>
-      <c r="V134" s="46"/>
-      <c r="W134" s="46"/>
-      <c r="X134" s="46"/>
-      <c r="Y134" s="46"/>
-      <c r="Z134" s="46"/>
-      <c r="AA134" s="46"/>
+      <c r="L134" s="42"/>
+      <c r="M134" s="42"/>
+      <c r="N134" s="42"/>
+      <c r="O134" s="42"/>
+      <c r="P134" s="42"/>
+      <c r="Q134" s="42"/>
+      <c r="R134" s="42"/>
+      <c r="S134" s="42"/>
+      <c r="T134" s="42"/>
+      <c r="U134" s="42"/>
+      <c r="V134" s="42"/>
+      <c r="W134" s="42"/>
+      <c r="X134" s="42"/>
+      <c r="Y134" s="42"/>
+      <c r="Z134" s="42"/>
+      <c r="AA134" s="42"/>
     </row>
     <row r="135" spans="1:27" ht="14">
       <c r="A135" s="67" t="s">
@@ -10335,22 +10318,22 @@
       <c r="K135" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="L135" s="46"/>
-      <c r="M135" s="46"/>
-      <c r="N135" s="46"/>
-      <c r="O135" s="46"/>
-      <c r="P135" s="46"/>
-      <c r="Q135" s="46"/>
-      <c r="R135" s="46"/>
-      <c r="S135" s="46"/>
-      <c r="T135" s="46"/>
-      <c r="U135" s="46"/>
-      <c r="V135" s="46"/>
-      <c r="W135" s="46"/>
-      <c r="X135" s="46"/>
-      <c r="Y135" s="46"/>
-      <c r="Z135" s="46"/>
-      <c r="AA135" s="46"/>
+      <c r="L135" s="42"/>
+      <c r="M135" s="42"/>
+      <c r="N135" s="42"/>
+      <c r="O135" s="42"/>
+      <c r="P135" s="42"/>
+      <c r="Q135" s="42"/>
+      <c r="R135" s="42"/>
+      <c r="S135" s="42"/>
+      <c r="T135" s="42"/>
+      <c r="U135" s="42"/>
+      <c r="V135" s="42"/>
+      <c r="W135" s="42"/>
+      <c r="X135" s="42"/>
+      <c r="Y135" s="42"/>
+      <c r="Z135" s="42"/>
+      <c r="AA135" s="42"/>
     </row>
     <row r="136" spans="1:27" ht="14">
       <c r="A136" s="38" t="s">
@@ -10371,7 +10354,7 @@
         <v>1967</v>
       </c>
       <c r="H136" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I136" s="66" t="s">
         <v>115</v>
@@ -10380,22 +10363,22 @@
         <v>31</v>
       </c>
       <c r="K136" s="38"/>
-      <c r="L136" s="46"/>
-      <c r="M136" s="46"/>
-      <c r="N136" s="46"/>
-      <c r="O136" s="46"/>
-      <c r="P136" s="46"/>
-      <c r="Q136" s="46"/>
-      <c r="R136" s="46"/>
-      <c r="S136" s="46"/>
-      <c r="T136" s="46"/>
-      <c r="U136" s="46"/>
-      <c r="V136" s="46"/>
-      <c r="W136" s="46"/>
-      <c r="X136" s="46"/>
-      <c r="Y136" s="46"/>
-      <c r="Z136" s="46"/>
-      <c r="AA136" s="46"/>
+      <c r="L136" s="42"/>
+      <c r="M136" s="42"/>
+      <c r="N136" s="42"/>
+      <c r="O136" s="42"/>
+      <c r="P136" s="42"/>
+      <c r="Q136" s="42"/>
+      <c r="R136" s="42"/>
+      <c r="S136" s="42"/>
+      <c r="T136" s="42"/>
+      <c r="U136" s="42"/>
+      <c r="V136" s="42"/>
+      <c r="W136" s="42"/>
+      <c r="X136" s="42"/>
+      <c r="Y136" s="42"/>
+      <c r="Z136" s="42"/>
+      <c r="AA136" s="42"/>
     </row>
     <row r="137" spans="1:27" ht="14">
       <c r="A137" s="67" t="s">
@@ -10425,22 +10408,22 @@
       <c r="K137" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="L137" s="46"/>
-      <c r="M137" s="46"/>
-      <c r="N137" s="46"/>
-      <c r="O137" s="46"/>
-      <c r="P137" s="46"/>
-      <c r="Q137" s="46"/>
-      <c r="R137" s="46"/>
-      <c r="S137" s="46"/>
-      <c r="T137" s="46"/>
-      <c r="U137" s="46"/>
-      <c r="V137" s="46"/>
-      <c r="W137" s="46"/>
-      <c r="X137" s="46"/>
-      <c r="Y137" s="46"/>
-      <c r="Z137" s="46"/>
-      <c r="AA137" s="46"/>
+      <c r="L137" s="42"/>
+      <c r="M137" s="42"/>
+      <c r="N137" s="42"/>
+      <c r="O137" s="42"/>
+      <c r="P137" s="42"/>
+      <c r="Q137" s="42"/>
+      <c r="R137" s="42"/>
+      <c r="S137" s="42"/>
+      <c r="T137" s="42"/>
+      <c r="U137" s="42"/>
+      <c r="V137" s="42"/>
+      <c r="W137" s="42"/>
+      <c r="X137" s="42"/>
+      <c r="Y137" s="42"/>
+      <c r="Z137" s="42"/>
+      <c r="AA137" s="42"/>
     </row>
     <row r="138" spans="1:27" ht="14">
       <c r="A138" s="38" t="s">
@@ -10461,7 +10444,7 @@
         <v>1967</v>
       </c>
       <c r="H138" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I138" s="66" t="s">
         <v>115</v>
@@ -10470,22 +10453,22 @@
         <v>31</v>
       </c>
       <c r="K138" s="38"/>
-      <c r="L138" s="46"/>
-      <c r="M138" s="46"/>
-      <c r="N138" s="46"/>
-      <c r="O138" s="46"/>
-      <c r="P138" s="46"/>
-      <c r="Q138" s="46"/>
-      <c r="R138" s="46"/>
-      <c r="S138" s="46"/>
-      <c r="T138" s="46"/>
-      <c r="U138" s="46"/>
-      <c r="V138" s="46"/>
-      <c r="W138" s="46"/>
-      <c r="X138" s="46"/>
-      <c r="Y138" s="46"/>
-      <c r="Z138" s="46"/>
-      <c r="AA138" s="46"/>
+      <c r="L138" s="42"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="42"/>
+      <c r="O138" s="42"/>
+      <c r="P138" s="42"/>
+      <c r="Q138" s="42"/>
+      <c r="R138" s="42"/>
+      <c r="S138" s="42"/>
+      <c r="T138" s="42"/>
+      <c r="U138" s="42"/>
+      <c r="V138" s="42"/>
+      <c r="W138" s="42"/>
+      <c r="X138" s="42"/>
+      <c r="Y138" s="42"/>
+      <c r="Z138" s="42"/>
+      <c r="AA138" s="42"/>
     </row>
     <row r="139" spans="1:27" ht="14">
       <c r="A139" s="67" t="s">
@@ -10515,22 +10498,22 @@
       <c r="K139" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="L139" s="46"/>
-      <c r="M139" s="46"/>
-      <c r="N139" s="46"/>
-      <c r="O139" s="46"/>
-      <c r="P139" s="46"/>
-      <c r="Q139" s="46"/>
-      <c r="R139" s="46"/>
-      <c r="S139" s="46"/>
-      <c r="T139" s="46"/>
-      <c r="U139" s="46"/>
-      <c r="V139" s="46"/>
-      <c r="W139" s="46"/>
-      <c r="X139" s="46"/>
-      <c r="Y139" s="46"/>
-      <c r="Z139" s="46"/>
-      <c r="AA139" s="46"/>
+      <c r="L139" s="42"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="42"/>
+      <c r="O139" s="42"/>
+      <c r="P139" s="42"/>
+      <c r="Q139" s="42"/>
+      <c r="R139" s="42"/>
+      <c r="S139" s="42"/>
+      <c r="T139" s="42"/>
+      <c r="U139" s="42"/>
+      <c r="V139" s="42"/>
+      <c r="W139" s="42"/>
+      <c r="X139" s="42"/>
+      <c r="Y139" s="42"/>
+      <c r="Z139" s="42"/>
+      <c r="AA139" s="42"/>
     </row>
     <row r="140" spans="1:27" ht="14">
       <c r="A140" s="38" t="s">
@@ -10551,7 +10534,7 @@
         <v>1967</v>
       </c>
       <c r="H140" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I140" s="66" t="s">
         <v>115</v>
@@ -10560,22 +10543,22 @@
         <v>31</v>
       </c>
       <c r="K140" s="38"/>
-      <c r="L140" s="46"/>
-      <c r="M140" s="46"/>
-      <c r="N140" s="46"/>
-      <c r="O140" s="46"/>
-      <c r="P140" s="46"/>
-      <c r="Q140" s="46"/>
-      <c r="R140" s="46"/>
-      <c r="S140" s="46"/>
-      <c r="T140" s="46"/>
-      <c r="U140" s="46"/>
-      <c r="V140" s="46"/>
-      <c r="W140" s="46"/>
-      <c r="X140" s="46"/>
-      <c r="Y140" s="46"/>
-      <c r="Z140" s="46"/>
-      <c r="AA140" s="46"/>
+      <c r="L140" s="42"/>
+      <c r="M140" s="42"/>
+      <c r="N140" s="42"/>
+      <c r="O140" s="42"/>
+      <c r="P140" s="42"/>
+      <c r="Q140" s="42"/>
+      <c r="R140" s="42"/>
+      <c r="S140" s="42"/>
+      <c r="T140" s="42"/>
+      <c r="U140" s="42"/>
+      <c r="V140" s="42"/>
+      <c r="W140" s="42"/>
+      <c r="X140" s="42"/>
+      <c r="Y140" s="42"/>
+      <c r="Z140" s="42"/>
+      <c r="AA140" s="42"/>
     </row>
     <row r="141" spans="1:27" ht="14">
       <c r="A141" s="67" t="s">
@@ -10607,22 +10590,22 @@
       <c r="K141" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="L141" s="46"/>
-      <c r="M141" s="46"/>
-      <c r="N141" s="46"/>
-      <c r="O141" s="46"/>
-      <c r="P141" s="46"/>
-      <c r="Q141" s="46"/>
-      <c r="R141" s="46"/>
-      <c r="S141" s="46"/>
-      <c r="T141" s="46"/>
-      <c r="U141" s="46"/>
-      <c r="V141" s="46"/>
-      <c r="W141" s="46"/>
-      <c r="X141" s="46"/>
-      <c r="Y141" s="46"/>
-      <c r="Z141" s="46"/>
-      <c r="AA141" s="46"/>
+      <c r="L141" s="42"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="42"/>
+      <c r="O141" s="42"/>
+      <c r="P141" s="42"/>
+      <c r="Q141" s="42"/>
+      <c r="R141" s="42"/>
+      <c r="S141" s="42"/>
+      <c r="T141" s="42"/>
+      <c r="U141" s="42"/>
+      <c r="V141" s="42"/>
+      <c r="W141" s="42"/>
+      <c r="X141" s="42"/>
+      <c r="Y141" s="42"/>
+      <c r="Z141" s="42"/>
+      <c r="AA141" s="42"/>
     </row>
     <row r="142" spans="1:27" ht="14">
       <c r="A142" s="38" t="s">
@@ -10643,7 +10626,7 @@
         <v>1967</v>
       </c>
       <c r="H142" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I142" s="66" t="s">
         <v>115</v>
@@ -10652,22 +10635,22 @@
         <v>31</v>
       </c>
       <c r="K142" s="38"/>
-      <c r="L142" s="46"/>
-      <c r="M142" s="46"/>
-      <c r="N142" s="46"/>
-      <c r="O142" s="46"/>
-      <c r="P142" s="46"/>
-      <c r="Q142" s="46"/>
-      <c r="R142" s="46"/>
-      <c r="S142" s="46"/>
-      <c r="T142" s="46"/>
-      <c r="U142" s="46"/>
-      <c r="V142" s="46"/>
-      <c r="W142" s="46"/>
-      <c r="X142" s="46"/>
-      <c r="Y142" s="46"/>
-      <c r="Z142" s="46"/>
-      <c r="AA142" s="46"/>
+      <c r="L142" s="42"/>
+      <c r="M142" s="42"/>
+      <c r="N142" s="42"/>
+      <c r="O142" s="42"/>
+      <c r="P142" s="42"/>
+      <c r="Q142" s="42"/>
+      <c r="R142" s="42"/>
+      <c r="S142" s="42"/>
+      <c r="T142" s="42"/>
+      <c r="U142" s="42"/>
+      <c r="V142" s="42"/>
+      <c r="W142" s="42"/>
+      <c r="X142" s="42"/>
+      <c r="Y142" s="42"/>
+      <c r="Z142" s="42"/>
+      <c r="AA142" s="42"/>
     </row>
     <row r="143" spans="1:27" ht="14">
       <c r="A143" s="67" t="s">
@@ -10688,7 +10671,7 @@
         <v>1967</v>
       </c>
       <c r="H143" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I143" s="66" t="s">
         <v>115</v>
@@ -10697,22 +10680,22 @@
         <v>31</v>
       </c>
       <c r="K143" s="38"/>
-      <c r="L143" s="46"/>
-      <c r="M143" s="46"/>
-      <c r="N143" s="46"/>
-      <c r="O143" s="46"/>
-      <c r="P143" s="46"/>
-      <c r="Q143" s="46"/>
-      <c r="R143" s="46"/>
-      <c r="S143" s="46"/>
-      <c r="T143" s="46"/>
-      <c r="U143" s="46"/>
-      <c r="V143" s="46"/>
-      <c r="W143" s="46"/>
-      <c r="X143" s="46"/>
-      <c r="Y143" s="46"/>
-      <c r="Z143" s="46"/>
-      <c r="AA143" s="46"/>
+      <c r="L143" s="42"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="42"/>
+      <c r="O143" s="42"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="42"/>
+      <c r="R143" s="42"/>
+      <c r="S143" s="42"/>
+      <c r="T143" s="42"/>
+      <c r="U143" s="42"/>
+      <c r="V143" s="42"/>
+      <c r="W143" s="42"/>
+      <c r="X143" s="42"/>
+      <c r="Y143" s="42"/>
+      <c r="Z143" s="42"/>
+      <c r="AA143" s="42"/>
     </row>
     <row r="144" spans="1:27" ht="14">
       <c r="A144" s="67" t="s">
@@ -10742,22 +10725,22 @@
       <c r="K144" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="L144" s="46"/>
-      <c r="M144" s="46"/>
-      <c r="N144" s="46"/>
-      <c r="O144" s="46"/>
-      <c r="P144" s="46"/>
-      <c r="Q144" s="46"/>
-      <c r="R144" s="46"/>
-      <c r="S144" s="46"/>
-      <c r="T144" s="46"/>
-      <c r="U144" s="46"/>
-      <c r="V144" s="46"/>
-      <c r="W144" s="46"/>
-      <c r="X144" s="46"/>
-      <c r="Y144" s="46"/>
-      <c r="Z144" s="46"/>
-      <c r="AA144" s="46"/>
+      <c r="L144" s="42"/>
+      <c r="M144" s="42"/>
+      <c r="N144" s="42"/>
+      <c r="O144" s="42"/>
+      <c r="P144" s="42"/>
+      <c r="Q144" s="42"/>
+      <c r="R144" s="42"/>
+      <c r="S144" s="42"/>
+      <c r="T144" s="42"/>
+      <c r="U144" s="42"/>
+      <c r="V144" s="42"/>
+      <c r="W144" s="42"/>
+      <c r="X144" s="42"/>
+      <c r="Y144" s="42"/>
+      <c r="Z144" s="42"/>
+      <c r="AA144" s="42"/>
     </row>
     <row r="145" spans="1:27" ht="14">
       <c r="A145" s="38" t="s">
@@ -10778,7 +10761,7 @@
         <v>1967</v>
       </c>
       <c r="H145" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I145" s="66" t="s">
         <v>115</v>
@@ -10787,22 +10770,22 @@
         <v>31</v>
       </c>
       <c r="K145" s="38"/>
-      <c r="L145" s="46"/>
-      <c r="M145" s="46"/>
-      <c r="N145" s="46"/>
-      <c r="O145" s="46"/>
-      <c r="P145" s="46"/>
-      <c r="Q145" s="46"/>
-      <c r="R145" s="46"/>
-      <c r="S145" s="46"/>
-      <c r="T145" s="46"/>
-      <c r="U145" s="46"/>
-      <c r="V145" s="46"/>
-      <c r="W145" s="46"/>
-      <c r="X145" s="46"/>
-      <c r="Y145" s="46"/>
-      <c r="Z145" s="46"/>
-      <c r="AA145" s="46"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="42"/>
+      <c r="N145" s="42"/>
+      <c r="O145" s="42"/>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="42"/>
+      <c r="R145" s="42"/>
+      <c r="S145" s="42"/>
+      <c r="T145" s="42"/>
+      <c r="U145" s="42"/>
+      <c r="V145" s="42"/>
+      <c r="W145" s="42"/>
+      <c r="X145" s="42"/>
+      <c r="Y145" s="42"/>
+      <c r="Z145" s="42"/>
+      <c r="AA145" s="42"/>
     </row>
     <row r="146" spans="1:27" ht="14">
       <c r="A146" s="38" t="s">
@@ -10823,7 +10806,7 @@
         <v>1967</v>
       </c>
       <c r="H146" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I146" s="66" t="s">
         <v>115</v>
@@ -10832,22 +10815,22 @@
         <v>31</v>
       </c>
       <c r="K146" s="38"/>
-      <c r="L146" s="46"/>
-      <c r="M146" s="46"/>
-      <c r="N146" s="46"/>
-      <c r="O146" s="46"/>
-      <c r="P146" s="46"/>
-      <c r="Q146" s="46"/>
-      <c r="R146" s="46"/>
-      <c r="S146" s="46"/>
-      <c r="T146" s="46"/>
-      <c r="U146" s="46"/>
-      <c r="V146" s="46"/>
-      <c r="W146" s="46"/>
-      <c r="X146" s="46"/>
-      <c r="Y146" s="46"/>
-      <c r="Z146" s="46"/>
-      <c r="AA146" s="46"/>
+      <c r="L146" s="42"/>
+      <c r="M146" s="42"/>
+      <c r="N146" s="42"/>
+      <c r="O146" s="42"/>
+      <c r="P146" s="42"/>
+      <c r="Q146" s="42"/>
+      <c r="R146" s="42"/>
+      <c r="S146" s="42"/>
+      <c r="T146" s="42"/>
+      <c r="U146" s="42"/>
+      <c r="V146" s="42"/>
+      <c r="W146" s="42"/>
+      <c r="X146" s="42"/>
+      <c r="Y146" s="42"/>
+      <c r="Z146" s="42"/>
+      <c r="AA146" s="42"/>
     </row>
     <row r="147" spans="1:27" ht="14">
       <c r="A147" s="67" t="s">
@@ -10877,22 +10860,22 @@
       <c r="K147" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="L147" s="46"/>
-      <c r="M147" s="46"/>
-      <c r="N147" s="46"/>
-      <c r="O147" s="46"/>
-      <c r="P147" s="46"/>
-      <c r="Q147" s="46"/>
-      <c r="R147" s="46"/>
-      <c r="S147" s="46"/>
-      <c r="T147" s="46"/>
-      <c r="U147" s="46"/>
-      <c r="V147" s="46"/>
-      <c r="W147" s="46"/>
-      <c r="X147" s="46"/>
-      <c r="Y147" s="46"/>
-      <c r="Z147" s="46"/>
-      <c r="AA147" s="46"/>
+      <c r="L147" s="42"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="42"/>
+      <c r="O147" s="42"/>
+      <c r="P147" s="42"/>
+      <c r="Q147" s="42"/>
+      <c r="R147" s="42"/>
+      <c r="S147" s="42"/>
+      <c r="T147" s="42"/>
+      <c r="U147" s="42"/>
+      <c r="V147" s="42"/>
+      <c r="W147" s="42"/>
+      <c r="X147" s="42"/>
+      <c r="Y147" s="42"/>
+      <c r="Z147" s="42"/>
+      <c r="AA147" s="42"/>
     </row>
     <row r="148" spans="1:27" ht="14">
       <c r="A148" s="38" t="s">
@@ -10913,7 +10896,7 @@
         <v>1967</v>
       </c>
       <c r="H148" s="65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I148" s="66" t="s">
         <v>115</v>
@@ -10922,22 +10905,22 @@
         <v>31</v>
       </c>
       <c r="K148" s="38"/>
-      <c r="L148" s="46"/>
-      <c r="M148" s="46"/>
-      <c r="N148" s="46"/>
-      <c r="O148" s="46"/>
-      <c r="P148" s="46"/>
-      <c r="Q148" s="46"/>
-      <c r="R148" s="46"/>
-      <c r="S148" s="46"/>
-      <c r="T148" s="46"/>
-      <c r="U148" s="46"/>
-      <c r="V148" s="46"/>
-      <c r="W148" s="46"/>
-      <c r="X148" s="46"/>
-      <c r="Y148" s="46"/>
-      <c r="Z148" s="46"/>
-      <c r="AA148" s="46"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="42"/>
+      <c r="O148" s="42"/>
+      <c r="P148" s="42"/>
+      <c r="Q148" s="42"/>
+      <c r="R148" s="42"/>
+      <c r="S148" s="42"/>
+      <c r="T148" s="42"/>
+      <c r="U148" s="42"/>
+      <c r="V148" s="42"/>
+      <c r="W148" s="42"/>
+      <c r="X148" s="42"/>
+      <c r="Y148" s="42"/>
+      <c r="Z148" s="42"/>
+      <c r="AA148" s="42"/>
     </row>
     <row r="149" spans="1:27" ht="14">
       <c r="A149" s="67" t="s">
@@ -10967,22 +10950,22 @@
       <c r="K149" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="L149" s="46"/>
-      <c r="M149" s="46"/>
-      <c r="N149" s="46"/>
-      <c r="O149" s="46"/>
-      <c r="P149" s="46"/>
-      <c r="Q149" s="46"/>
-      <c r="R149" s="46"/>
-      <c r="S149" s="46"/>
-      <c r="T149" s="46"/>
-      <c r="U149" s="46"/>
-      <c r="V149" s="46"/>
-      <c r="W149" s="46"/>
-      <c r="X149" s="46"/>
-      <c r="Y149" s="46"/>
-      <c r="Z149" s="46"/>
-      <c r="AA149" s="46"/>
+      <c r="L149" s="42"/>
+      <c r="M149" s="42"/>
+      <c r="N149" s="42"/>
+      <c r="O149" s="42"/>
+      <c r="P149" s="42"/>
+      <c r="Q149" s="42"/>
+      <c r="R149" s="42"/>
+      <c r="S149" s="42"/>
+      <c r="T149" s="42"/>
+      <c r="U149" s="42"/>
+      <c r="V149" s="42"/>
+      <c r="W149" s="42"/>
+      <c r="X149" s="42"/>
+      <c r="Y149" s="42"/>
+      <c r="Z149" s="42"/>
+      <c r="AA149" s="42"/>
     </row>
     <row r="150" spans="1:27" ht="14">
       <c r="A150" s="67" t="s">
@@ -11012,22 +10995,22 @@
         <v>31</v>
       </c>
       <c r="K150" s="68"/>
-      <c r="L150" s="46"/>
-      <c r="M150" s="46"/>
-      <c r="N150" s="46"/>
-      <c r="O150" s="46"/>
-      <c r="P150" s="46"/>
-      <c r="Q150" s="46"/>
-      <c r="R150" s="46"/>
-      <c r="S150" s="46"/>
-      <c r="T150" s="46"/>
-      <c r="U150" s="46"/>
-      <c r="V150" s="46"/>
-      <c r="W150" s="46"/>
-      <c r="X150" s="46"/>
-      <c r="Y150" s="46"/>
-      <c r="Z150" s="46"/>
-      <c r="AA150" s="46"/>
+      <c r="L150" s="42"/>
+      <c r="M150" s="42"/>
+      <c r="N150" s="42"/>
+      <c r="O150" s="42"/>
+      <c r="P150" s="42"/>
+      <c r="Q150" s="42"/>
+      <c r="R150" s="42"/>
+      <c r="S150" s="42"/>
+      <c r="T150" s="42"/>
+      <c r="U150" s="42"/>
+      <c r="V150" s="42"/>
+      <c r="W150" s="42"/>
+      <c r="X150" s="42"/>
+      <c r="Y150" s="42"/>
+      <c r="Z150" s="42"/>
+      <c r="AA150" s="42"/>
     </row>
     <row r="151" spans="1:27" ht="14">
       <c r="A151" s="67" t="s">
@@ -11057,22 +11040,22 @@
         <v>31</v>
       </c>
       <c r="K151" s="68"/>
-      <c r="L151" s="46"/>
-      <c r="M151" s="46"/>
-      <c r="N151" s="46"/>
-      <c r="O151" s="46"/>
-      <c r="P151" s="46"/>
-      <c r="Q151" s="46"/>
-      <c r="R151" s="46"/>
-      <c r="S151" s="46"/>
-      <c r="T151" s="46"/>
-      <c r="U151" s="46"/>
-      <c r="V151" s="46"/>
-      <c r="W151" s="46"/>
-      <c r="X151" s="46"/>
-      <c r="Y151" s="46"/>
-      <c r="Z151" s="46"/>
-      <c r="AA151" s="46"/>
+      <c r="L151" s="42"/>
+      <c r="M151" s="42"/>
+      <c r="N151" s="42"/>
+      <c r="O151" s="42"/>
+      <c r="P151" s="42"/>
+      <c r="Q151" s="42"/>
+      <c r="R151" s="42"/>
+      <c r="S151" s="42"/>
+      <c r="T151" s="42"/>
+      <c r="U151" s="42"/>
+      <c r="V151" s="42"/>
+      <c r="W151" s="42"/>
+      <c r="X151" s="42"/>
+      <c r="Y151" s="42"/>
+      <c r="Z151" s="42"/>
+      <c r="AA151" s="42"/>
     </row>
     <row r="152" spans="1:27" ht="14">
       <c r="A152" s="67" t="s">
@@ -11102,22 +11085,22 @@
         <v>31</v>
       </c>
       <c r="K152" s="68"/>
-      <c r="L152" s="46"/>
-      <c r="M152" s="46"/>
-      <c r="N152" s="46"/>
-      <c r="O152" s="46"/>
-      <c r="P152" s="46"/>
-      <c r="Q152" s="46"/>
-      <c r="R152" s="46"/>
-      <c r="S152" s="46"/>
-      <c r="T152" s="46"/>
-      <c r="U152" s="46"/>
-      <c r="V152" s="46"/>
-      <c r="W152" s="46"/>
-      <c r="X152" s="46"/>
-      <c r="Y152" s="46"/>
-      <c r="Z152" s="46"/>
-      <c r="AA152" s="46"/>
+      <c r="L152" s="42"/>
+      <c r="M152" s="42"/>
+      <c r="N152" s="42"/>
+      <c r="O152" s="42"/>
+      <c r="P152" s="42"/>
+      <c r="Q152" s="42"/>
+      <c r="R152" s="42"/>
+      <c r="S152" s="42"/>
+      <c r="T152" s="42"/>
+      <c r="U152" s="42"/>
+      <c r="V152" s="42"/>
+      <c r="W152" s="42"/>
+      <c r="X152" s="42"/>
+      <c r="Y152" s="42"/>
+      <c r="Z152" s="42"/>
+      <c r="AA152" s="42"/>
     </row>
     <row r="153" spans="1:27" ht="14">
       <c r="A153" s="67" t="s">
@@ -11147,22 +11130,22 @@
         <v>31</v>
       </c>
       <c r="K153" s="68"/>
-      <c r="L153" s="46"/>
-      <c r="M153" s="46"/>
-      <c r="N153" s="46"/>
-      <c r="O153" s="46"/>
-      <c r="P153" s="46"/>
-      <c r="Q153" s="46"/>
-      <c r="R153" s="46"/>
-      <c r="S153" s="46"/>
-      <c r="T153" s="46"/>
-      <c r="U153" s="46"/>
-      <c r="V153" s="46"/>
-      <c r="W153" s="46"/>
-      <c r="X153" s="46"/>
-      <c r="Y153" s="46"/>
-      <c r="Z153" s="46"/>
-      <c r="AA153" s="46"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="42"/>
+      <c r="S153" s="42"/>
+      <c r="T153" s="42"/>
+      <c r="U153" s="42"/>
+      <c r="V153" s="42"/>
+      <c r="W153" s="42"/>
+      <c r="X153" s="42"/>
+      <c r="Y153" s="42"/>
+      <c r="Z153" s="42"/>
+      <c r="AA153" s="42"/>
     </row>
     <row r="154" spans="1:27" ht="14">
       <c r="A154" s="67" t="s">
@@ -11192,22 +11175,22 @@
         <v>31</v>
       </c>
       <c r="K154" s="68"/>
-      <c r="L154" s="46"/>
-      <c r="M154" s="46"/>
-      <c r="N154" s="46"/>
-      <c r="O154" s="46"/>
-      <c r="P154" s="46"/>
-      <c r="Q154" s="46"/>
-      <c r="R154" s="46"/>
-      <c r="S154" s="46"/>
-      <c r="T154" s="46"/>
-      <c r="U154" s="46"/>
-      <c r="V154" s="46"/>
-      <c r="W154" s="46"/>
-      <c r="X154" s="46"/>
-      <c r="Y154" s="46"/>
-      <c r="Z154" s="46"/>
-      <c r="AA154" s="46"/>
+      <c r="L154" s="42"/>
+      <c r="M154" s="42"/>
+      <c r="N154" s="42"/>
+      <c r="O154" s="42"/>
+      <c r="P154" s="42"/>
+      <c r="Q154" s="42"/>
+      <c r="R154" s="42"/>
+      <c r="S154" s="42"/>
+      <c r="T154" s="42"/>
+      <c r="U154" s="42"/>
+      <c r="V154" s="42"/>
+      <c r="W154" s="42"/>
+      <c r="X154" s="42"/>
+      <c r="Y154" s="42"/>
+      <c r="Z154" s="42"/>
+      <c r="AA154" s="42"/>
     </row>
     <row r="155" spans="1:27" ht="14">
       <c r="A155" s="67" t="s">
@@ -11237,22 +11220,22 @@
         <v>31</v>
       </c>
       <c r="K155" s="68"/>
-      <c r="L155" s="46"/>
-      <c r="M155" s="46"/>
-      <c r="N155" s="46"/>
-      <c r="O155" s="46"/>
-      <c r="P155" s="46"/>
-      <c r="Q155" s="46"/>
-      <c r="R155" s="46"/>
-      <c r="S155" s="46"/>
-      <c r="T155" s="46"/>
-      <c r="U155" s="46"/>
-      <c r="V155" s="46"/>
-      <c r="W155" s="46"/>
-      <c r="X155" s="46"/>
-      <c r="Y155" s="46"/>
-      <c r="Z155" s="46"/>
-      <c r="AA155" s="46"/>
+      <c r="L155" s="42"/>
+      <c r="M155" s="42"/>
+      <c r="N155" s="42"/>
+      <c r="O155" s="42"/>
+      <c r="P155" s="42"/>
+      <c r="Q155" s="42"/>
+      <c r="R155" s="42"/>
+      <c r="S155" s="42"/>
+      <c r="T155" s="42"/>
+      <c r="U155" s="42"/>
+      <c r="V155" s="42"/>
+      <c r="W155" s="42"/>
+      <c r="X155" s="42"/>
+      <c r="Y155" s="42"/>
+      <c r="Z155" s="42"/>
+      <c r="AA155" s="42"/>
     </row>
     <row r="156" spans="1:27" ht="14">
       <c r="A156" s="67" t="s">
@@ -11282,22 +11265,22 @@
         <v>31</v>
       </c>
       <c r="K156" s="68"/>
-      <c r="L156" s="46"/>
-      <c r="M156" s="46"/>
-      <c r="N156" s="46"/>
-      <c r="O156" s="46"/>
-      <c r="P156" s="46"/>
-      <c r="Q156" s="46"/>
-      <c r="R156" s="46"/>
-      <c r="S156" s="46"/>
-      <c r="T156" s="46"/>
-      <c r="U156" s="46"/>
-      <c r="V156" s="46"/>
-      <c r="W156" s="46"/>
-      <c r="X156" s="46"/>
-      <c r="Y156" s="46"/>
-      <c r="Z156" s="46"/>
-      <c r="AA156" s="46"/>
+      <c r="L156" s="42"/>
+      <c r="M156" s="42"/>
+      <c r="N156" s="42"/>
+      <c r="O156" s="42"/>
+      <c r="P156" s="42"/>
+      <c r="Q156" s="42"/>
+      <c r="R156" s="42"/>
+      <c r="S156" s="42"/>
+      <c r="T156" s="42"/>
+      <c r="U156" s="42"/>
+      <c r="V156" s="42"/>
+      <c r="W156" s="42"/>
+      <c r="X156" s="42"/>
+      <c r="Y156" s="42"/>
+      <c r="Z156" s="42"/>
+      <c r="AA156" s="42"/>
     </row>
     <row r="157" spans="1:27" ht="14">
       <c r="A157" s="67" t="s">
@@ -11327,22 +11310,22 @@
         <v>31</v>
       </c>
       <c r="K157" s="68"/>
-      <c r="L157" s="46"/>
-      <c r="M157" s="46"/>
-      <c r="N157" s="46"/>
-      <c r="O157" s="46"/>
-      <c r="P157" s="46"/>
-      <c r="Q157" s="46"/>
-      <c r="R157" s="46"/>
-      <c r="S157" s="46"/>
-      <c r="T157" s="46"/>
-      <c r="U157" s="46"/>
-      <c r="V157" s="46"/>
-      <c r="W157" s="46"/>
-      <c r="X157" s="46"/>
-      <c r="Y157" s="46"/>
-      <c r="Z157" s="46"/>
-      <c r="AA157" s="46"/>
+      <c r="L157" s="42"/>
+      <c r="M157" s="42"/>
+      <c r="N157" s="42"/>
+      <c r="O157" s="42"/>
+      <c r="P157" s="42"/>
+      <c r="Q157" s="42"/>
+      <c r="R157" s="42"/>
+      <c r="S157" s="42"/>
+      <c r="T157" s="42"/>
+      <c r="U157" s="42"/>
+      <c r="V157" s="42"/>
+      <c r="W157" s="42"/>
+      <c r="X157" s="42"/>
+      <c r="Y157" s="42"/>
+      <c r="Z157" s="42"/>
+      <c r="AA157" s="42"/>
     </row>
     <row r="158" spans="1:27" ht="14">
       <c r="A158" s="67" t="s">
@@ -11372,22 +11355,22 @@
         <v>31</v>
       </c>
       <c r="K158" s="68"/>
-      <c r="L158" s="46"/>
-      <c r="M158" s="46"/>
-      <c r="N158" s="46"/>
-      <c r="O158" s="46"/>
-      <c r="P158" s="46"/>
-      <c r="Q158" s="46"/>
-      <c r="R158" s="46"/>
-      <c r="S158" s="46"/>
-      <c r="T158" s="46"/>
-      <c r="U158" s="46"/>
-      <c r="V158" s="46"/>
-      <c r="W158" s="46"/>
-      <c r="X158" s="46"/>
-      <c r="Y158" s="46"/>
-      <c r="Z158" s="46"/>
-      <c r="AA158" s="46"/>
+      <c r="L158" s="42"/>
+      <c r="M158" s="42"/>
+      <c r="N158" s="42"/>
+      <c r="O158" s="42"/>
+      <c r="P158" s="42"/>
+      <c r="Q158" s="42"/>
+      <c r="R158" s="42"/>
+      <c r="S158" s="42"/>
+      <c r="T158" s="42"/>
+      <c r="U158" s="42"/>
+      <c r="V158" s="42"/>
+      <c r="W158" s="42"/>
+      <c r="X158" s="42"/>
+      <c r="Y158" s="42"/>
+      <c r="Z158" s="42"/>
+      <c r="AA158" s="42"/>
     </row>
     <row r="159" spans="1:27" ht="14">
       <c r="A159" s="67" t="s">
@@ -11417,22 +11400,22 @@
         <v>31</v>
       </c>
       <c r="K159" s="67"/>
-      <c r="L159" s="46"/>
-      <c r="M159" s="46"/>
-      <c r="N159" s="46"/>
-      <c r="O159" s="46"/>
-      <c r="P159" s="46"/>
-      <c r="Q159" s="46"/>
-      <c r="R159" s="46"/>
-      <c r="S159" s="46"/>
-      <c r="T159" s="46"/>
-      <c r="U159" s="46"/>
-      <c r="V159" s="46"/>
-      <c r="W159" s="46"/>
-      <c r="X159" s="46"/>
-      <c r="Y159" s="46"/>
-      <c r="Z159" s="46"/>
-      <c r="AA159" s="46"/>
+      <c r="L159" s="42"/>
+      <c r="M159" s="42"/>
+      <c r="N159" s="42"/>
+      <c r="O159" s="42"/>
+      <c r="P159" s="42"/>
+      <c r="Q159" s="42"/>
+      <c r="R159" s="42"/>
+      <c r="S159" s="42"/>
+      <c r="T159" s="42"/>
+      <c r="U159" s="42"/>
+      <c r="V159" s="42"/>
+      <c r="W159" s="42"/>
+      <c r="X159" s="42"/>
+      <c r="Y159" s="42"/>
+      <c r="Z159" s="42"/>
+      <c r="AA159" s="42"/>
     </row>
     <row r="160" spans="1:27" ht="14">
       <c r="A160" s="67" t="s">
@@ -11462,22 +11445,22 @@
         <v>31</v>
       </c>
       <c r="K160" s="67"/>
-      <c r="L160" s="46"/>
-      <c r="M160" s="46"/>
-      <c r="N160" s="46"/>
-      <c r="O160" s="46"/>
-      <c r="P160" s="46"/>
-      <c r="Q160" s="46"/>
-      <c r="R160" s="46"/>
-      <c r="S160" s="46"/>
-      <c r="T160" s="46"/>
-      <c r="U160" s="46"/>
-      <c r="V160" s="46"/>
-      <c r="W160" s="46"/>
-      <c r="X160" s="46"/>
-      <c r="Y160" s="46"/>
-      <c r="Z160" s="46"/>
-      <c r="AA160" s="46"/>
+      <c r="L160" s="42"/>
+      <c r="M160" s="42"/>
+      <c r="N160" s="42"/>
+      <c r="O160" s="42"/>
+      <c r="P160" s="42"/>
+      <c r="Q160" s="42"/>
+      <c r="R160" s="42"/>
+      <c r="S160" s="42"/>
+      <c r="T160" s="42"/>
+      <c r="U160" s="42"/>
+      <c r="V160" s="42"/>
+      <c r="W160" s="42"/>
+      <c r="X160" s="42"/>
+      <c r="Y160" s="42"/>
+      <c r="Z160" s="42"/>
+      <c r="AA160" s="42"/>
     </row>
     <row r="161" spans="1:27" ht="14">
       <c r="A161" s="67" t="s">
@@ -11507,22 +11490,22 @@
         <v>31</v>
       </c>
       <c r="K161" s="67"/>
-      <c r="L161" s="46"/>
-      <c r="M161" s="46"/>
-      <c r="N161" s="46"/>
-      <c r="O161" s="46"/>
-      <c r="P161" s="46"/>
-      <c r="Q161" s="46"/>
-      <c r="R161" s="46"/>
-      <c r="S161" s="46"/>
-      <c r="T161" s="46"/>
-      <c r="U161" s="46"/>
-      <c r="V161" s="46"/>
-      <c r="W161" s="46"/>
-      <c r="X161" s="46"/>
-      <c r="Y161" s="46"/>
-      <c r="Z161" s="46"/>
-      <c r="AA161" s="46"/>
+      <c r="L161" s="42"/>
+      <c r="M161" s="42"/>
+      <c r="N161" s="42"/>
+      <c r="O161" s="42"/>
+      <c r="P161" s="42"/>
+      <c r="Q161" s="42"/>
+      <c r="R161" s="42"/>
+      <c r="S161" s="42"/>
+      <c r="T161" s="42"/>
+      <c r="U161" s="42"/>
+      <c r="V161" s="42"/>
+      <c r="W161" s="42"/>
+      <c r="X161" s="42"/>
+      <c r="Y161" s="42"/>
+      <c r="Z161" s="42"/>
+      <c r="AA161" s="42"/>
     </row>
     <row r="162" spans="1:27" ht="14">
       <c r="A162" s="67" t="s">
@@ -11554,22 +11537,22 @@
       <c r="K162" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="L162" s="46"/>
-      <c r="M162" s="46"/>
-      <c r="N162" s="46"/>
-      <c r="O162" s="46"/>
-      <c r="P162" s="46"/>
-      <c r="Q162" s="46"/>
-      <c r="R162" s="46"/>
-      <c r="S162" s="46"/>
-      <c r="T162" s="46"/>
-      <c r="U162" s="46"/>
-      <c r="V162" s="46"/>
-      <c r="W162" s="46"/>
-      <c r="X162" s="46"/>
-      <c r="Y162" s="46"/>
-      <c r="Z162" s="46"/>
-      <c r="AA162" s="46"/>
+      <c r="L162" s="42"/>
+      <c r="M162" s="42"/>
+      <c r="N162" s="42"/>
+      <c r="O162" s="42"/>
+      <c r="P162" s="42"/>
+      <c r="Q162" s="42"/>
+      <c r="R162" s="42"/>
+      <c r="S162" s="42"/>
+      <c r="T162" s="42"/>
+      <c r="U162" s="42"/>
+      <c r="V162" s="42"/>
+      <c r="W162" s="42"/>
+      <c r="X162" s="42"/>
+      <c r="Y162" s="42"/>
+      <c r="Z162" s="42"/>
+      <c r="AA162" s="42"/>
     </row>
     <row r="163" spans="1:27" ht="14">
       <c r="A163" s="67" t="s">
@@ -11601,22 +11584,22 @@
       <c r="K163" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="L163" s="46"/>
-      <c r="M163" s="46"/>
-      <c r="N163" s="46"/>
-      <c r="O163" s="46"/>
-      <c r="P163" s="46"/>
-      <c r="Q163" s="46"/>
-      <c r="R163" s="46"/>
-      <c r="S163" s="46"/>
-      <c r="T163" s="46"/>
-      <c r="U163" s="46"/>
-      <c r="V163" s="46"/>
-      <c r="W163" s="46"/>
-      <c r="X163" s="46"/>
-      <c r="Y163" s="46"/>
-      <c r="Z163" s="46"/>
-      <c r="AA163" s="46"/>
+      <c r="L163" s="42"/>
+      <c r="M163" s="42"/>
+      <c r="N163" s="42"/>
+      <c r="O163" s="42"/>
+      <c r="P163" s="42"/>
+      <c r="Q163" s="42"/>
+      <c r="R163" s="42"/>
+      <c r="S163" s="42"/>
+      <c r="T163" s="42"/>
+      <c r="U163" s="42"/>
+      <c r="V163" s="42"/>
+      <c r="W163" s="42"/>
+      <c r="X163" s="42"/>
+      <c r="Y163" s="42"/>
+      <c r="Z163" s="42"/>
+      <c r="AA163" s="42"/>
     </row>
     <row r="164" spans="1:27" ht="26">
       <c r="A164" s="67" t="s">
@@ -11643,27 +11626,27 @@
         <v>16</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K164" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="L164" s="46"/>
-      <c r="M164" s="46"/>
-      <c r="N164" s="46"/>
-      <c r="O164" s="46"/>
-      <c r="P164" s="46"/>
-      <c r="Q164" s="46"/>
-      <c r="R164" s="46"/>
-      <c r="S164" s="46"/>
-      <c r="T164" s="46"/>
-      <c r="U164" s="46"/>
-      <c r="V164" s="46"/>
-      <c r="W164" s="46"/>
-      <c r="X164" s="46"/>
-      <c r="Y164" s="46"/>
-      <c r="Z164" s="46"/>
-      <c r="AA164" s="46"/>
+      <c r="L164" s="42"/>
+      <c r="M164" s="42"/>
+      <c r="N164" s="42"/>
+      <c r="O164" s="42"/>
+      <c r="P164" s="42"/>
+      <c r="Q164" s="42"/>
+      <c r="R164" s="42"/>
+      <c r="S164" s="42"/>
+      <c r="T164" s="42"/>
+      <c r="U164" s="42"/>
+      <c r="V164" s="42"/>
+      <c r="W164" s="42"/>
+      <c r="X164" s="42"/>
+      <c r="Y164" s="42"/>
+      <c r="Z164" s="42"/>
+      <c r="AA164" s="42"/>
     </row>
     <row r="165" spans="1:27" ht="28">
       <c r="A165" s="67" t="s">
@@ -11695,22 +11678,22 @@
       <c r="K165" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="L165" s="46"/>
-      <c r="M165" s="46"/>
-      <c r="N165" s="46"/>
-      <c r="O165" s="46"/>
-      <c r="P165" s="46"/>
-      <c r="Q165" s="46"/>
-      <c r="R165" s="46"/>
-      <c r="S165" s="46"/>
-      <c r="T165" s="46"/>
-      <c r="U165" s="46"/>
-      <c r="V165" s="46"/>
-      <c r="W165" s="46"/>
-      <c r="X165" s="46"/>
-      <c r="Y165" s="46"/>
-      <c r="Z165" s="46"/>
-      <c r="AA165" s="46"/>
+      <c r="L165" s="42"/>
+      <c r="M165" s="42"/>
+      <c r="N165" s="42"/>
+      <c r="O165" s="42"/>
+      <c r="P165" s="42"/>
+      <c r="Q165" s="42"/>
+      <c r="R165" s="42"/>
+      <c r="S165" s="42"/>
+      <c r="T165" s="42"/>
+      <c r="U165" s="42"/>
+      <c r="V165" s="42"/>
+      <c r="W165" s="42"/>
+      <c r="X165" s="42"/>
+      <c r="Y165" s="42"/>
+      <c r="Z165" s="42"/>
+      <c r="AA165" s="42"/>
     </row>
     <row r="166" spans="1:27" ht="14">
       <c r="A166" s="67" t="s">
@@ -11737,25 +11720,25 @@
         <v>16</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K166" s="67"/>
-      <c r="L166" s="46"/>
-      <c r="M166" s="46"/>
-      <c r="N166" s="46"/>
-      <c r="O166" s="46"/>
-      <c r="P166" s="46"/>
-      <c r="Q166" s="46"/>
-      <c r="R166" s="46"/>
-      <c r="S166" s="46"/>
-      <c r="T166" s="46"/>
-      <c r="U166" s="46"/>
-      <c r="V166" s="46"/>
-      <c r="W166" s="46"/>
-      <c r="X166" s="46"/>
-      <c r="Y166" s="46"/>
-      <c r="Z166" s="46"/>
-      <c r="AA166" s="46"/>
+      <c r="L166" s="42"/>
+      <c r="M166" s="42"/>
+      <c r="N166" s="42"/>
+      <c r="O166" s="42"/>
+      <c r="P166" s="42"/>
+      <c r="Q166" s="42"/>
+      <c r="R166" s="42"/>
+      <c r="S166" s="42"/>
+      <c r="T166" s="42"/>
+      <c r="U166" s="42"/>
+      <c r="V166" s="42"/>
+      <c r="W166" s="42"/>
+      <c r="X166" s="42"/>
+      <c r="Y166" s="42"/>
+      <c r="Z166" s="42"/>
+      <c r="AA166" s="42"/>
     </row>
     <row r="167" spans="1:27" ht="14">
       <c r="A167" s="67" t="s">
@@ -11782,27 +11765,27 @@
         <v>16</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K167" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="L167" s="46"/>
-      <c r="M167" s="46"/>
-      <c r="N167" s="46"/>
-      <c r="O167" s="46"/>
-      <c r="P167" s="46"/>
-      <c r="Q167" s="46"/>
-      <c r="R167" s="46"/>
-      <c r="S167" s="46"/>
-      <c r="T167" s="46"/>
-      <c r="U167" s="46"/>
-      <c r="V167" s="46"/>
-      <c r="W167" s="46"/>
-      <c r="X167" s="46"/>
-      <c r="Y167" s="46"/>
-      <c r="Z167" s="46"/>
-      <c r="AA167" s="46"/>
+      <c r="L167" s="42"/>
+      <c r="M167" s="42"/>
+      <c r="N167" s="42"/>
+      <c r="O167" s="42"/>
+      <c r="P167" s="42"/>
+      <c r="Q167" s="42"/>
+      <c r="R167" s="42"/>
+      <c r="S167" s="42"/>
+      <c r="T167" s="42"/>
+      <c r="U167" s="42"/>
+      <c r="V167" s="42"/>
+      <c r="W167" s="42"/>
+      <c r="X167" s="42"/>
+      <c r="Y167" s="42"/>
+      <c r="Z167" s="42"/>
+      <c r="AA167" s="42"/>
     </row>
     <row r="168" spans="1:27" ht="42">
       <c r="A168" s="67" t="s">
@@ -11823,7 +11806,7 @@
         <v>2020</v>
       </c>
       <c r="H168" s="65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I168" s="66" t="s">
         <v>24</v>
@@ -11834,22 +11817,22 @@
       <c r="K168" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="L168" s="46"/>
-      <c r="M168" s="46"/>
-      <c r="N168" s="46"/>
-      <c r="O168" s="46"/>
-      <c r="P168" s="46"/>
-      <c r="Q168" s="46"/>
-      <c r="R168" s="46"/>
-      <c r="S168" s="46"/>
-      <c r="T168" s="46"/>
-      <c r="U168" s="46"/>
-      <c r="V168" s="46"/>
-      <c r="W168" s="46"/>
-      <c r="X168" s="46"/>
-      <c r="Y168" s="46"/>
-      <c r="Z168" s="46"/>
-      <c r="AA168" s="46"/>
+      <c r="L168" s="42"/>
+      <c r="M168" s="42"/>
+      <c r="N168" s="42"/>
+      <c r="O168" s="42"/>
+      <c r="P168" s="42"/>
+      <c r="Q168" s="42"/>
+      <c r="R168" s="42"/>
+      <c r="S168" s="42"/>
+      <c r="T168" s="42"/>
+      <c r="U168" s="42"/>
+      <c r="V168" s="42"/>
+      <c r="W168" s="42"/>
+      <c r="X168" s="42"/>
+      <c r="Y168" s="42"/>
+      <c r="Z168" s="42"/>
+      <c r="AA168" s="42"/>
     </row>
     <row r="169" spans="1:27" ht="28">
       <c r="A169" s="67" t="s">
@@ -11881,22 +11864,22 @@
       <c r="K169" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="L169" s="46"/>
-      <c r="M169" s="46"/>
-      <c r="N169" s="46"/>
-      <c r="O169" s="46"/>
-      <c r="P169" s="46"/>
-      <c r="Q169" s="46"/>
-      <c r="R169" s="46"/>
-      <c r="S169" s="46"/>
-      <c r="T169" s="46"/>
-      <c r="U169" s="46"/>
-      <c r="V169" s="46"/>
-      <c r="W169" s="46"/>
-      <c r="X169" s="46"/>
-      <c r="Y169" s="46"/>
-      <c r="Z169" s="46"/>
-      <c r="AA169" s="46"/>
+      <c r="L169" s="42"/>
+      <c r="M169" s="42"/>
+      <c r="N169" s="42"/>
+      <c r="O169" s="42"/>
+      <c r="P169" s="42"/>
+      <c r="Q169" s="42"/>
+      <c r="R169" s="42"/>
+      <c r="S169" s="42"/>
+      <c r="T169" s="42"/>
+      <c r="U169" s="42"/>
+      <c r="V169" s="42"/>
+      <c r="W169" s="42"/>
+      <c r="X169" s="42"/>
+      <c r="Y169" s="42"/>
+      <c r="Z169" s="42"/>
+      <c r="AA169" s="42"/>
     </row>
     <row r="170" spans="1:27" ht="13">
       <c r="A170" s="12" t="s">
@@ -12748,10 +12731,10 @@
         <v>45</v>
       </c>
       <c r="I188" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K188" s="37" t="s">
         <v>220</v>
@@ -12795,10 +12778,10 @@
         <v>45</v>
       </c>
       <c r="I189" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K189" s="37" t="s">
         <v>220</v>
@@ -12835,37 +12818,37 @@
       <c r="F190" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G190" s="41">
+      <c r="G190" s="43">
         <v>2022</v>
       </c>
-      <c r="H190" s="42" t="s">
+      <c r="H190" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="I190" s="43" t="s">
-        <v>89</v>
+      <c r="I190" s="45" t="s">
+        <v>90</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K190" s="44" t="s">
+      <c r="K190" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="L190" s="46"/>
-      <c r="M190" s="46"/>
-      <c r="N190" s="46"/>
-      <c r="O190" s="46"/>
-      <c r="P190" s="46"/>
-      <c r="Q190" s="46"/>
-      <c r="R190" s="46"/>
-      <c r="S190" s="46"/>
-      <c r="T190" s="46"/>
-      <c r="U190" s="46"/>
-      <c r="V190" s="46"/>
-      <c r="W190" s="46"/>
-      <c r="X190" s="46"/>
-      <c r="Y190" s="46"/>
-      <c r="Z190" s="46"/>
-      <c r="AA190" s="46"/>
+      <c r="L190" s="42"/>
+      <c r="M190" s="42"/>
+      <c r="N190" s="42"/>
+      <c r="O190" s="42"/>
+      <c r="P190" s="42"/>
+      <c r="Q190" s="42"/>
+      <c r="R190" s="42"/>
+      <c r="S190" s="42"/>
+      <c r="T190" s="42"/>
+      <c r="U190" s="42"/>
+      <c r="V190" s="42"/>
+      <c r="W190" s="42"/>
+      <c r="X190" s="42"/>
+      <c r="Y190" s="42"/>
+      <c r="Z190" s="42"/>
+      <c r="AA190" s="42"/>
     </row>
     <row r="191" spans="1:27" ht="14">
       <c r="A191" s="38" t="s">
@@ -12882,37 +12865,37 @@
       <c r="F191" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="G191" s="41">
+      <c r="G191" s="43">
         <v>2022</v>
       </c>
-      <c r="H191" s="42" t="s">
+      <c r="H191" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="I191" s="43" t="s">
-        <v>89</v>
+      <c r="I191" s="45" t="s">
+        <v>90</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K191" s="44" t="s">
+      <c r="K191" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="L191" s="46"/>
-      <c r="M191" s="46"/>
-      <c r="N191" s="46"/>
-      <c r="O191" s="46"/>
-      <c r="P191" s="46"/>
-      <c r="Q191" s="46"/>
-      <c r="R191" s="46"/>
-      <c r="S191" s="46"/>
-      <c r="T191" s="46"/>
-      <c r="U191" s="46"/>
-      <c r="V191" s="46"/>
-      <c r="W191" s="46"/>
-      <c r="X191" s="46"/>
-      <c r="Y191" s="46"/>
-      <c r="Z191" s="46"/>
-      <c r="AA191" s="46"/>
+      <c r="L191" s="42"/>
+      <c r="M191" s="42"/>
+      <c r="N191" s="42"/>
+      <c r="O191" s="42"/>
+      <c r="P191" s="42"/>
+      <c r="Q191" s="42"/>
+      <c r="R191" s="42"/>
+      <c r="S191" s="42"/>
+      <c r="T191" s="42"/>
+      <c r="U191" s="42"/>
+      <c r="V191" s="42"/>
+      <c r="W191" s="42"/>
+      <c r="X191" s="42"/>
+      <c r="Y191" s="42"/>
+      <c r="Z191" s="42"/>
+      <c r="AA191" s="42"/>
     </row>
     <row r="192" spans="1:27" ht="14">
       <c r="A192" s="38" t="s">
@@ -12929,37 +12912,37 @@
       <c r="F192" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G192" s="41">
+      <c r="G192" s="43">
         <v>2022</v>
       </c>
-      <c r="H192" s="42" t="s">
+      <c r="H192" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="I192" s="43" t="s">
-        <v>89</v>
+      <c r="I192" s="45" t="s">
+        <v>90</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K192" s="44" t="s">
+      <c r="K192" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="L192" s="46"/>
-      <c r="M192" s="46"/>
-      <c r="N192" s="46"/>
-      <c r="O192" s="46"/>
-      <c r="P192" s="46"/>
-      <c r="Q192" s="46"/>
-      <c r="R192" s="46"/>
-      <c r="S192" s="46"/>
-      <c r="T192" s="46"/>
-      <c r="U192" s="46"/>
-      <c r="V192" s="46"/>
-      <c r="W192" s="46"/>
-      <c r="X192" s="46"/>
-      <c r="Y192" s="46"/>
-      <c r="Z192" s="46"/>
-      <c r="AA192" s="46"/>
+      <c r="L192" s="42"/>
+      <c r="M192" s="42"/>
+      <c r="N192" s="42"/>
+      <c r="O192" s="42"/>
+      <c r="P192" s="42"/>
+      <c r="Q192" s="42"/>
+      <c r="R192" s="42"/>
+      <c r="S192" s="42"/>
+      <c r="T192" s="42"/>
+      <c r="U192" s="42"/>
+      <c r="V192" s="42"/>
+      <c r="W192" s="42"/>
+      <c r="X192" s="42"/>
+      <c r="Y192" s="42"/>
+      <c r="Z192" s="42"/>
+      <c r="AA192" s="42"/>
     </row>
     <row r="193" spans="1:27" ht="39">
       <c r="A193" s="38" t="s">
@@ -12976,37 +12959,37 @@
       <c r="F193" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="G193" s="41">
+      <c r="G193" s="43">
         <v>2024</v>
       </c>
       <c r="H193" s="74" t="s">
         <v>45</v>
       </c>
       <c r="I193" s="75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K193" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K193" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="L193" s="46"/>
-      <c r="M193" s="46"/>
-      <c r="N193" s="46"/>
-      <c r="O193" s="46"/>
-      <c r="P193" s="46"/>
-      <c r="Q193" s="46"/>
-      <c r="R193" s="46"/>
-      <c r="S193" s="46"/>
-      <c r="T193" s="46"/>
-      <c r="U193" s="46"/>
-      <c r="V193" s="46"/>
-      <c r="W193" s="46"/>
-      <c r="X193" s="46"/>
-      <c r="Y193" s="46"/>
-      <c r="Z193" s="46"/>
-      <c r="AA193" s="46"/>
+      <c r="L193" s="42"/>
+      <c r="M193" s="42"/>
+      <c r="N193" s="42"/>
+      <c r="O193" s="42"/>
+      <c r="P193" s="42"/>
+      <c r="Q193" s="42"/>
+      <c r="R193" s="42"/>
+      <c r="S193" s="42"/>
+      <c r="T193" s="42"/>
+      <c r="U193" s="42"/>
+      <c r="V193" s="42"/>
+      <c r="W193" s="42"/>
+      <c r="X193" s="42"/>
+      <c r="Y193" s="42"/>
+      <c r="Z193" s="42"/>
+      <c r="AA193" s="42"/>
     </row>
     <row r="194" spans="1:27" ht="26">
       <c r="A194" s="30" t="s">
@@ -13030,7 +13013,7 @@
         <v>223</v>
       </c>
       <c r="I194" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>17</v>
@@ -13070,37 +13053,37 @@
       <c r="F195" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G195" s="41">
+      <c r="G195" s="43">
         <v>2024</v>
       </c>
-      <c r="H195" s="42" t="s">
+      <c r="H195" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="I195" s="43" t="s">
+      <c r="I195" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K195" s="44" t="s">
+      <c r="K195" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="L195" s="46"/>
-      <c r="M195" s="46"/>
-      <c r="N195" s="46"/>
-      <c r="O195" s="46"/>
-      <c r="P195" s="46"/>
-      <c r="Q195" s="46"/>
-      <c r="R195" s="46"/>
-      <c r="S195" s="46"/>
-      <c r="T195" s="46"/>
-      <c r="U195" s="46"/>
-      <c r="V195" s="46"/>
-      <c r="W195" s="46"/>
-      <c r="X195" s="46"/>
-      <c r="Y195" s="46"/>
-      <c r="Z195" s="46"/>
-      <c r="AA195" s="46"/>
+      <c r="L195" s="42"/>
+      <c r="M195" s="42"/>
+      <c r="N195" s="42"/>
+      <c r="O195" s="42"/>
+      <c r="P195" s="42"/>
+      <c r="Q195" s="42"/>
+      <c r="R195" s="42"/>
+      <c r="S195" s="42"/>
+      <c r="T195" s="42"/>
+      <c r="U195" s="42"/>
+      <c r="V195" s="42"/>
+      <c r="W195" s="42"/>
+      <c r="X195" s="42"/>
+      <c r="Y195" s="42"/>
+      <c r="Z195" s="42"/>
+      <c r="AA195" s="42"/>
     </row>
     <row r="196" spans="1:27" ht="42">
       <c r="A196" s="38" t="s">
@@ -13117,37 +13100,37 @@
       <c r="F196" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G196" s="41">
+      <c r="G196" s="43">
         <v>2024</v>
       </c>
-      <c r="H196" s="42" t="s">
+      <c r="H196" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="I196" s="43" t="s">
+      <c r="I196" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K196" s="44" t="s">
+      <c r="K196" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="L196" s="46"/>
-      <c r="M196" s="46"/>
-      <c r="N196" s="46"/>
-      <c r="O196" s="46"/>
-      <c r="P196" s="46"/>
-      <c r="Q196" s="46"/>
-      <c r="R196" s="46"/>
-      <c r="S196" s="46"/>
-      <c r="T196" s="46"/>
-      <c r="U196" s="46"/>
-      <c r="V196" s="46"/>
-      <c r="W196" s="46"/>
-      <c r="X196" s="46"/>
-      <c r="Y196" s="46"/>
-      <c r="Z196" s="46"/>
-      <c r="AA196" s="46"/>
+      <c r="L196" s="42"/>
+      <c r="M196" s="42"/>
+      <c r="N196" s="42"/>
+      <c r="O196" s="42"/>
+      <c r="P196" s="42"/>
+      <c r="Q196" s="42"/>
+      <c r="R196" s="42"/>
+      <c r="S196" s="42"/>
+      <c r="T196" s="42"/>
+      <c r="U196" s="42"/>
+      <c r="V196" s="42"/>
+      <c r="W196" s="42"/>
+      <c r="X196" s="42"/>
+      <c r="Y196" s="42"/>
+      <c r="Z196" s="42"/>
+      <c r="AA196" s="42"/>
     </row>
     <row r="197" spans="1:27" ht="28">
       <c r="A197" s="38" t="s">
@@ -13164,37 +13147,37 @@
       <c r="F197" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="G197" s="41">
+      <c r="G197" s="43">
         <v>2024</v>
       </c>
-      <c r="H197" s="42" t="s">
+      <c r="H197" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="I197" s="43" t="s">
+      <c r="I197" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K197" s="44" t="s">
+      <c r="K197" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="L197" s="46"/>
-      <c r="M197" s="46"/>
-      <c r="N197" s="46"/>
-      <c r="O197" s="46"/>
-      <c r="P197" s="46"/>
-      <c r="Q197" s="46"/>
-      <c r="R197" s="46"/>
-      <c r="S197" s="46"/>
-      <c r="T197" s="46"/>
-      <c r="U197" s="46"/>
-      <c r="V197" s="46"/>
-      <c r="W197" s="46"/>
-      <c r="X197" s="46"/>
-      <c r="Y197" s="46"/>
-      <c r="Z197" s="46"/>
-      <c r="AA197" s="46"/>
+      <c r="L197" s="42"/>
+      <c r="M197" s="42"/>
+      <c r="N197" s="42"/>
+      <c r="O197" s="42"/>
+      <c r="P197" s="42"/>
+      <c r="Q197" s="42"/>
+      <c r="R197" s="42"/>
+      <c r="S197" s="42"/>
+      <c r="T197" s="42"/>
+      <c r="U197" s="42"/>
+      <c r="V197" s="42"/>
+      <c r="W197" s="42"/>
+      <c r="X197" s="42"/>
+      <c r="Y197" s="42"/>
+      <c r="Z197" s="42"/>
+      <c r="AA197" s="42"/>
     </row>
     <row r="198" spans="1:27" ht="42">
       <c r="A198" s="38" t="s">
@@ -13211,37 +13194,37 @@
       <c r="F198" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G198" s="41">
+      <c r="G198" s="43">
         <v>2024</v>
       </c>
-      <c r="H198" s="42" t="s">
+      <c r="H198" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="I198" s="43" t="s">
+      <c r="I198" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K198" s="44" t="s">
+      <c r="K198" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="L198" s="46"/>
-      <c r="M198" s="46"/>
-      <c r="N198" s="46"/>
-      <c r="O198" s="46"/>
-      <c r="P198" s="46"/>
-      <c r="Q198" s="46"/>
-      <c r="R198" s="46"/>
-      <c r="S198" s="46"/>
-      <c r="T198" s="46"/>
-      <c r="U198" s="46"/>
-      <c r="V198" s="46"/>
-      <c r="W198" s="46"/>
-      <c r="X198" s="46"/>
-      <c r="Y198" s="46"/>
-      <c r="Z198" s="46"/>
-      <c r="AA198" s="46"/>
+      <c r="L198" s="42"/>
+      <c r="M198" s="42"/>
+      <c r="N198" s="42"/>
+      <c r="O198" s="42"/>
+      <c r="P198" s="42"/>
+      <c r="Q198" s="42"/>
+      <c r="R198" s="42"/>
+      <c r="S198" s="42"/>
+      <c r="T198" s="42"/>
+      <c r="U198" s="42"/>
+      <c r="V198" s="42"/>
+      <c r="W198" s="42"/>
+      <c r="X198" s="42"/>
+      <c r="Y198" s="42"/>
+      <c r="Z198" s="42"/>
+      <c r="AA198" s="42"/>
     </row>
     <row r="199" spans="1:27" ht="28">
       <c r="A199" s="38" t="s">
@@ -13258,37 +13241,37 @@
       <c r="F199" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="G199" s="41">
+      <c r="G199" s="43">
         <v>2024</v>
       </c>
-      <c r="H199" s="42" t="s">
+      <c r="H199" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="I199" s="43" t="s">
+      <c r="I199" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K199" s="44" t="s">
+      <c r="K199" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="L199" s="46"/>
-      <c r="M199" s="46"/>
-      <c r="N199" s="46"/>
-      <c r="O199" s="46"/>
-      <c r="P199" s="46"/>
-      <c r="Q199" s="46"/>
-      <c r="R199" s="46"/>
-      <c r="S199" s="46"/>
-      <c r="T199" s="46"/>
-      <c r="U199" s="46"/>
-      <c r="V199" s="46"/>
-      <c r="W199" s="46"/>
-      <c r="X199" s="46"/>
-      <c r="Y199" s="46"/>
-      <c r="Z199" s="46"/>
-      <c r="AA199" s="46"/>
+      <c r="L199" s="42"/>
+      <c r="M199" s="42"/>
+      <c r="N199" s="42"/>
+      <c r="O199" s="42"/>
+      <c r="P199" s="42"/>
+      <c r="Q199" s="42"/>
+      <c r="R199" s="42"/>
+      <c r="S199" s="42"/>
+      <c r="T199" s="42"/>
+      <c r="U199" s="42"/>
+      <c r="V199" s="42"/>
+      <c r="W199" s="42"/>
+      <c r="X199" s="42"/>
+      <c r="Y199" s="42"/>
+      <c r="Z199" s="42"/>
+      <c r="AA199" s="42"/>
     </row>
     <row r="200" spans="1:27" ht="28">
       <c r="A200" s="38" t="s">
@@ -13305,37 +13288,37 @@
       <c r="F200" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="G200" s="41">
+      <c r="G200" s="43">
         <v>2024</v>
       </c>
-      <c r="H200" s="42" t="s">
+      <c r="H200" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="I200" s="43" t="s">
+      <c r="I200" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K200" s="44" t="s">
+      <c r="K200" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="L200" s="46"/>
-      <c r="M200" s="46"/>
-      <c r="N200" s="46"/>
-      <c r="O200" s="46"/>
-      <c r="P200" s="46"/>
-      <c r="Q200" s="46"/>
-      <c r="R200" s="46"/>
-      <c r="S200" s="46"/>
-      <c r="T200" s="46"/>
-      <c r="U200" s="46"/>
-      <c r="V200" s="46"/>
-      <c r="W200" s="46"/>
-      <c r="X200" s="46"/>
-      <c r="Y200" s="46"/>
-      <c r="Z200" s="46"/>
-      <c r="AA200" s="46"/>
+      <c r="L200" s="42"/>
+      <c r="M200" s="42"/>
+      <c r="N200" s="42"/>
+      <c r="O200" s="42"/>
+      <c r="P200" s="42"/>
+      <c r="Q200" s="42"/>
+      <c r="R200" s="42"/>
+      <c r="S200" s="42"/>
+      <c r="T200" s="42"/>
+      <c r="U200" s="42"/>
+      <c r="V200" s="42"/>
+      <c r="W200" s="42"/>
+      <c r="X200" s="42"/>
+      <c r="Y200" s="42"/>
+      <c r="Z200" s="42"/>
+      <c r="AA200" s="42"/>
     </row>
     <row r="201" spans="1:27" ht="28">
       <c r="A201" s="30" t="s">
@@ -13359,10 +13342,10 @@
         <v>45</v>
       </c>
       <c r="I201" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K201" s="37" t="s">
         <v>238</v>
@@ -13696,37 +13679,37 @@
       <c r="F209" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="G209" s="41">
+      <c r="G209" s="43">
         <v>2024</v>
       </c>
       <c r="H209" s="74" t="s">
         <v>45</v>
       </c>
       <c r="I209" s="75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K209" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K209" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="L209" s="46"/>
-      <c r="M209" s="46"/>
-      <c r="N209" s="46"/>
-      <c r="O209" s="46"/>
-      <c r="P209" s="46"/>
-      <c r="Q209" s="46"/>
-      <c r="R209" s="46"/>
-      <c r="S209" s="46"/>
-      <c r="T209" s="46"/>
-      <c r="U209" s="46"/>
-      <c r="V209" s="46"/>
-      <c r="W209" s="46"/>
-      <c r="X209" s="46"/>
-      <c r="Y209" s="46"/>
-      <c r="Z209" s="46"/>
-      <c r="AA209" s="46"/>
+      <c r="L209" s="42"/>
+      <c r="M209" s="42"/>
+      <c r="N209" s="42"/>
+      <c r="O209" s="42"/>
+      <c r="P209" s="42"/>
+      <c r="Q209" s="42"/>
+      <c r="R209" s="42"/>
+      <c r="S209" s="42"/>
+      <c r="T209" s="42"/>
+      <c r="U209" s="42"/>
+      <c r="V209" s="42"/>
+      <c r="W209" s="42"/>
+      <c r="X209" s="42"/>
+      <c r="Y209" s="42"/>
+      <c r="Z209" s="42"/>
+      <c r="AA209" s="42"/>
     </row>
     <row r="210" spans="1:27" ht="28">
       <c r="A210" s="30" t="s">
@@ -13837,11 +13820,11 @@
       <c r="F212" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="G212" s="42">
+      <c r="G212" s="44">
         <v>2024</v>
       </c>
       <c r="H212" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I212" s="75" t="s">
         <v>111</v>
@@ -13849,7 +13832,7 @@
       <c r="J212" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K212" s="44" t="s">
+      <c r="K212" s="46" t="s">
         <v>258</v>
       </c>
       <c r="L212" s="2"/>
@@ -13884,7 +13867,7 @@
       <c r="F213" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="G213" s="42">
+      <c r="G213" s="44">
         <v>2025</v>
       </c>
       <c r="H213" s="74" t="s">
@@ -13896,7 +13879,7 @@
       <c r="J213" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K213" s="44" t="s">
+      <c r="K213" s="46" t="s">
         <v>263</v>
       </c>
       <c r="L213" s="2"/>
@@ -13985,10 +13968,10 @@
         <v>45</v>
       </c>
       <c r="I215" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K215" s="78" t="s">
         <v>271</v>
@@ -14079,10 +14062,10 @@
         <v>15</v>
       </c>
       <c r="I217" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K217" s="37" t="s">
         <v>277</v>
@@ -14358,10 +14341,10 @@
         <v>2024</v>
       </c>
       <c r="H223" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I223" s="32" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>17</v>
@@ -14510,22 +14493,22 @@
       <c r="K226" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="L226" s="46"/>
-      <c r="M226" s="46"/>
-      <c r="N226" s="46"/>
-      <c r="O226" s="46"/>
-      <c r="P226" s="46"/>
-      <c r="Q226" s="46"/>
-      <c r="R226" s="46"/>
-      <c r="S226" s="46"/>
-      <c r="T226" s="46"/>
-      <c r="U226" s="46"/>
-      <c r="V226" s="46"/>
-      <c r="W226" s="46"/>
-      <c r="X226" s="46"/>
-      <c r="Y226" s="46"/>
-      <c r="Z226" s="46"/>
-      <c r="AA226" s="46"/>
+      <c r="L226" s="42"/>
+      <c r="M226" s="42"/>
+      <c r="N226" s="42"/>
+      <c r="O226" s="42"/>
+      <c r="P226" s="42"/>
+      <c r="Q226" s="42"/>
+      <c r="R226" s="42"/>
+      <c r="S226" s="42"/>
+      <c r="T226" s="42"/>
+      <c r="U226" s="42"/>
+      <c r="V226" s="42"/>
+      <c r="W226" s="42"/>
+      <c r="X226" s="42"/>
+      <c r="Y226" s="42"/>
+      <c r="Z226" s="42"/>
+      <c r="AA226" s="42"/>
     </row>
     <row r="227" spans="1:27" ht="14">
       <c r="A227" s="38" t="s">
@@ -15562,7 +15545,7 @@
     </row>
     <row r="250" spans="1:27" ht="14">
       <c r="A250" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B250" s="35">
         <v>13.5</v>
@@ -15573,7 +15556,7 @@
       <c r="D250" s="30"/>
       <c r="E250" s="30"/>
       <c r="F250" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G250" s="26">
         <v>2025</v>
@@ -15609,7 +15592,7 @@
     </row>
     <row r="251" spans="1:27" ht="39">
       <c r="A251" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B251" s="35">
         <v>13.5</v>
@@ -15620,19 +15603,19 @@
       <c r="D251" s="30"/>
       <c r="E251" s="30"/>
       <c r="F251" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G251" s="31">
         <v>2017</v>
       </c>
       <c r="H251" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I251" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K251" s="37" t="s">
         <v>313</v>
@@ -15656,7 +15639,7 @@
     </row>
     <row r="252" spans="1:27" ht="14">
       <c r="A252" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B252" s="35">
         <v>13.5</v>
@@ -15667,7 +15650,7 @@
       <c r="D252" s="30"/>
       <c r="E252" s="30"/>
       <c r="F252" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G252" s="26">
         <v>2025</v>
@@ -15703,7 +15686,7 @@
     </row>
     <row r="253" spans="1:27" ht="14">
       <c r="A253" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B253" s="35">
         <v>13.5</v>
@@ -15714,7 +15697,7 @@
       <c r="D253" s="30"/>
       <c r="E253" s="30"/>
       <c r="F253" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G253" s="26">
         <v>2025</v>
@@ -16317,7 +16300,7 @@
         <v>2010</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I266" s="32" t="s">
         <v>30</v>
@@ -16364,7 +16347,7 @@
         <v>2010</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I267" s="32" t="s">
         <v>30</v>
@@ -16411,7 +16394,7 @@
         <v>2010</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I268" s="32" t="s">
         <v>30</v>
@@ -16458,7 +16441,7 @@
         <v>2010</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I269" s="32" t="s">
         <v>30</v>
@@ -16671,13 +16654,13 @@
         <v>2022</v>
       </c>
       <c r="H274" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I274" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K274" s="34" t="s">
         <v>325</v>
@@ -16718,13 +16701,13 @@
         <v>2016</v>
       </c>
       <c r="H275" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I275" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K275" s="81" t="s">
         <v>327</v>
@@ -16765,13 +16748,13 @@
         <v>2022</v>
       </c>
       <c r="H276" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I276" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K276" s="81" t="s">
         <v>329</v>
@@ -16812,13 +16795,13 @@
         <v>2016</v>
       </c>
       <c r="H277" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I277" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K277" s="81" t="s">
         <v>331</v>
@@ -16859,13 +16842,13 @@
         <v>2016</v>
       </c>
       <c r="H278" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I278" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K278" s="81" t="s">
         <v>333</v>
@@ -16906,13 +16889,13 @@
         <v>2016</v>
       </c>
       <c r="H279" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I279" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K279" s="81" t="s">
         <v>335</v>
@@ -16953,13 +16936,13 @@
         <v>2016</v>
       </c>
       <c r="H280" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I280" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K280" s="81" t="s">
         <v>337</v>
@@ -17000,13 +16983,13 @@
         <v>2016</v>
       </c>
       <c r="H281" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I281" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K281" s="81" t="s">
         <v>339</v>
@@ -17047,13 +17030,13 @@
         <v>2016</v>
       </c>
       <c r="H282" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I282" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K282" s="81" t="s">
         <v>341</v>
@@ -17094,13 +17077,13 @@
         <v>2016</v>
       </c>
       <c r="H283" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I283" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K283" s="81" t="s">
         <v>343</v>
@@ -17141,13 +17124,13 @@
         <v>2016</v>
       </c>
       <c r="H284" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I284" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K284" s="81" t="s">
         <v>344</v>
@@ -17188,13 +17171,13 @@
         <v>2016</v>
       </c>
       <c r="H285" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I285" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K285" s="81" t="s">
         <v>346</v>
@@ -17235,13 +17218,13 @@
         <v>2016</v>
       </c>
       <c r="H286" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I286" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K286" s="81" t="s">
         <v>348</v>
@@ -17282,13 +17265,13 @@
         <v>2016</v>
       </c>
       <c r="H287" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I287" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K287" s="81" t="s">
         <v>349</v>
@@ -17329,13 +17312,13 @@
         <v>2016</v>
       </c>
       <c r="H288" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I288" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K288" s="81" t="s">
         <v>350</v>
@@ -17376,13 +17359,13 @@
         <v>2016</v>
       </c>
       <c r="H289" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I289" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K289" s="81" t="s">
         <v>351</v>
@@ -17423,13 +17406,13 @@
         <v>2016</v>
       </c>
       <c r="H290" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I290" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K290" s="81" t="s">
         <v>352</v>
@@ -17470,13 +17453,13 @@
         <v>2016</v>
       </c>
       <c r="H291" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I291" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K291" s="81" t="s">
         <v>354</v>
@@ -17517,13 +17500,13 @@
         <v>2016</v>
       </c>
       <c r="H292" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I292" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K292" s="81" t="s">
         <v>356</v>
@@ -17844,7 +17827,7 @@
     </row>
     <row r="300" spans="1:27" ht="52">
       <c r="A300" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B300" s="35">
         <v>11</v>
@@ -17938,7 +17921,7 @@
     </row>
     <row r="302" spans="1:27" ht="39">
       <c r="A302" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B302" s="35">
         <v>10</v>
@@ -17985,7 +17968,7 @@
     </row>
     <row r="303" spans="1:27" ht="28">
       <c r="A303" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B303" s="35">
         <v>9</v>
@@ -18032,7 +18015,7 @@
     </row>
     <row r="304" spans="1:27" ht="39">
       <c r="A304" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B304" s="35">
         <v>8</v>
@@ -18079,7 +18062,7 @@
     </row>
     <row r="305" spans="1:27" ht="52">
       <c r="A305" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B305" s="35">
         <v>5.5</v>
@@ -18126,7 +18109,7 @@
     </row>
     <row r="306" spans="1:27" ht="52">
       <c r="A306" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B306" s="35">
         <v>6</v>
@@ -18173,7 +18156,7 @@
     </row>
     <row r="307" spans="1:27" ht="28">
       <c r="A307" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B307" s="35">
         <v>3</v>
@@ -18220,7 +18203,7 @@
     </row>
     <row r="308" spans="1:27" ht="39">
       <c r="A308" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B308" s="35">
         <v>3</v>
@@ -18267,7 +18250,7 @@
     </row>
     <row r="309" spans="1:27" ht="52">
       <c r="A309" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B309" s="35">
         <v>1.5</v>
@@ -18393,13 +18376,13 @@
         <v>2024</v>
       </c>
       <c r="H312" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I312" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K312" s="37" t="s">
         <v>375</v>
@@ -18440,13 +18423,13 @@
         <v>2024</v>
       </c>
       <c r="H313" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I313" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K313" s="37" t="s">
         <v>377</v>
@@ -18487,13 +18470,13 @@
         <v>2024</v>
       </c>
       <c r="H314" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I314" s="32" t="s">
         <v>184</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K314" s="37" t="s">
         <v>379</v>
@@ -18534,13 +18517,13 @@
         <v>2024</v>
       </c>
       <c r="H315" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I315" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K315" s="37" t="s">
         <v>381</v>
@@ -18581,13 +18564,13 @@
         <v>2024</v>
       </c>
       <c r="H316" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I316" s="32" t="s">
         <v>184</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K316" s="37" t="s">
         <v>379</v>
@@ -18634,7 +18617,7 @@
         <v>46</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K317" s="37" t="s">
         <v>385</v>
@@ -18681,7 +18664,7 @@
         <v>46</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K318" s="37" t="s">
         <v>388</v>
@@ -18728,7 +18711,7 @@
         <v>46</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K319" s="37" t="s">
         <v>390</v>
@@ -18775,7 +18758,7 @@
         <v>46</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K320" s="37" t="s">
         <v>393</v>
@@ -18843,37 +18826,37 @@
       <c r="F322" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="G322" s="41">
+      <c r="G322" s="43">
         <v>2024</v>
       </c>
-      <c r="H322" s="42" t="s">
+      <c r="H322" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="I322" s="43" t="s">
+      <c r="I322" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J322" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K322" s="44" t="s">
+      <c r="K322" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="L322" s="46"/>
-      <c r="M322" s="46"/>
-      <c r="N322" s="46"/>
-      <c r="O322" s="46"/>
-      <c r="P322" s="46"/>
-      <c r="Q322" s="46"/>
-      <c r="R322" s="46"/>
-      <c r="S322" s="46"/>
-      <c r="T322" s="46"/>
-      <c r="U322" s="46"/>
-      <c r="V322" s="46"/>
-      <c r="W322" s="46"/>
-      <c r="X322" s="46"/>
-      <c r="Y322" s="46"/>
-      <c r="Z322" s="46"/>
-      <c r="AA322" s="46"/>
+      <c r="L322" s="42"/>
+      <c r="M322" s="42"/>
+      <c r="N322" s="42"/>
+      <c r="O322" s="42"/>
+      <c r="P322" s="42"/>
+      <c r="Q322" s="42"/>
+      <c r="R322" s="42"/>
+      <c r="S322" s="42"/>
+      <c r="T322" s="42"/>
+      <c r="U322" s="42"/>
+      <c r="V322" s="42"/>
+      <c r="W322" s="42"/>
+      <c r="X322" s="42"/>
+      <c r="Y322" s="42"/>
+      <c r="Z322" s="42"/>
+      <c r="AA322" s="42"/>
     </row>
     <row r="323" spans="1:27" ht="14">
       <c r="A323" s="30" t="s">
@@ -18894,7 +18877,7 @@
         <v>2024</v>
       </c>
       <c r="H323" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I323" s="32" t="s">
         <v>30</v>
@@ -18937,37 +18920,37 @@
       <c r="F324" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="G324" s="41">
+      <c r="G324" s="43">
         <v>2024</v>
       </c>
-      <c r="H324" s="42" t="s">
+      <c r="H324" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="I324" s="43" t="s">
+      <c r="I324" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K324" s="44" t="s">
+      <c r="K324" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="L324" s="46"/>
-      <c r="M324" s="46"/>
-      <c r="N324" s="46"/>
-      <c r="O324" s="46"/>
-      <c r="P324" s="46"/>
-      <c r="Q324" s="46"/>
-      <c r="R324" s="46"/>
-      <c r="S324" s="46"/>
-      <c r="T324" s="46"/>
-      <c r="U324" s="46"/>
-      <c r="V324" s="46"/>
-      <c r="W324" s="46"/>
-      <c r="X324" s="46"/>
-      <c r="Y324" s="46"/>
-      <c r="Z324" s="46"/>
-      <c r="AA324" s="46"/>
+      <c r="L324" s="42"/>
+      <c r="M324" s="42"/>
+      <c r="N324" s="42"/>
+      <c r="O324" s="42"/>
+      <c r="P324" s="42"/>
+      <c r="Q324" s="42"/>
+      <c r="R324" s="42"/>
+      <c r="S324" s="42"/>
+      <c r="T324" s="42"/>
+      <c r="U324" s="42"/>
+      <c r="V324" s="42"/>
+      <c r="W324" s="42"/>
+      <c r="X324" s="42"/>
+      <c r="Y324" s="42"/>
+      <c r="Z324" s="42"/>
+      <c r="AA324" s="42"/>
     </row>
     <row r="325" spans="1:27" ht="14">
       <c r="A325" s="30" t="s">
@@ -18988,7 +18971,7 @@
         <v>2024</v>
       </c>
       <c r="H325" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I325" s="32" t="s">
         <v>30</v>
@@ -19035,7 +19018,7 @@
         <v>2024</v>
       </c>
       <c r="H326" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I326" s="32" t="s">
         <v>30</v>
@@ -19078,37 +19061,37 @@
       <c r="F327" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="G327" s="41">
+      <c r="G327" s="43">
         <v>2024</v>
       </c>
-      <c r="H327" s="42" t="s">
+      <c r="H327" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="I327" s="43" t="s">
+      <c r="I327" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J327" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K327" s="44" t="s">
+      <c r="K327" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="L327" s="46"/>
-      <c r="M327" s="46"/>
-      <c r="N327" s="46"/>
-      <c r="O327" s="46"/>
-      <c r="P327" s="46"/>
-      <c r="Q327" s="46"/>
-      <c r="R327" s="46"/>
-      <c r="S327" s="46"/>
-      <c r="T327" s="46"/>
-      <c r="U327" s="46"/>
-      <c r="V327" s="46"/>
-      <c r="W327" s="46"/>
-      <c r="X327" s="46"/>
-      <c r="Y327" s="46"/>
-      <c r="Z327" s="46"/>
-      <c r="AA327" s="46"/>
+      <c r="L327" s="42"/>
+      <c r="M327" s="42"/>
+      <c r="N327" s="42"/>
+      <c r="O327" s="42"/>
+      <c r="P327" s="42"/>
+      <c r="Q327" s="42"/>
+      <c r="R327" s="42"/>
+      <c r="S327" s="42"/>
+      <c r="T327" s="42"/>
+      <c r="U327" s="42"/>
+      <c r="V327" s="42"/>
+      <c r="W327" s="42"/>
+      <c r="X327" s="42"/>
+      <c r="Y327" s="42"/>
+      <c r="Z327" s="42"/>
+      <c r="AA327" s="42"/>
     </row>
     <row r="328" spans="1:27" ht="14">
       <c r="A328" s="30" t="s">
@@ -19129,7 +19112,7 @@
         <v>2024</v>
       </c>
       <c r="H328" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I328" s="32" t="s">
         <v>30</v>
@@ -19172,37 +19155,37 @@
       <c r="F329" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="G329" s="41">
+      <c r="G329" s="43">
         <v>2024</v>
       </c>
-      <c r="H329" s="42" t="s">
+      <c r="H329" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="I329" s="43" t="s">
+      <c r="I329" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J329" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K329" s="44" t="s">
+      <c r="K329" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="L329" s="46"/>
-      <c r="M329" s="46"/>
-      <c r="N329" s="46"/>
-      <c r="O329" s="46"/>
-      <c r="P329" s="46"/>
-      <c r="Q329" s="46"/>
-      <c r="R329" s="46"/>
-      <c r="S329" s="46"/>
-      <c r="T329" s="46"/>
-      <c r="U329" s="46"/>
-      <c r="V329" s="46"/>
-      <c r="W329" s="46"/>
-      <c r="X329" s="46"/>
-      <c r="Y329" s="46"/>
-      <c r="Z329" s="46"/>
-      <c r="AA329" s="46"/>
+      <c r="L329" s="42"/>
+      <c r="M329" s="42"/>
+      <c r="N329" s="42"/>
+      <c r="O329" s="42"/>
+      <c r="P329" s="42"/>
+      <c r="Q329" s="42"/>
+      <c r="R329" s="42"/>
+      <c r="S329" s="42"/>
+      <c r="T329" s="42"/>
+      <c r="U329" s="42"/>
+      <c r="V329" s="42"/>
+      <c r="W329" s="42"/>
+      <c r="X329" s="42"/>
+      <c r="Y329" s="42"/>
+      <c r="Z329" s="42"/>
+      <c r="AA329" s="42"/>
     </row>
     <row r="330" spans="1:27" ht="14">
       <c r="A330" s="30" t="s">
@@ -19223,7 +19206,7 @@
         <v>2024</v>
       </c>
       <c r="H330" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I330" s="32" t="s">
         <v>30</v>
@@ -19266,37 +19249,37 @@
       <c r="F331" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="G331" s="41">
+      <c r="G331" s="43">
         <v>2024</v>
       </c>
-      <c r="H331" s="42" t="s">
+      <c r="H331" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="I331" s="43" t="s">
+      <c r="I331" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J331" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K331" s="44" t="s">
+      <c r="K331" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="L331" s="46"/>
-      <c r="M331" s="46"/>
-      <c r="N331" s="46"/>
-      <c r="O331" s="46"/>
-      <c r="P331" s="46"/>
-      <c r="Q331" s="46"/>
-      <c r="R331" s="46"/>
-      <c r="S331" s="46"/>
-      <c r="T331" s="46"/>
-      <c r="U331" s="46"/>
-      <c r="V331" s="46"/>
-      <c r="W331" s="46"/>
-      <c r="X331" s="46"/>
-      <c r="Y331" s="46"/>
-      <c r="Z331" s="46"/>
-      <c r="AA331" s="46"/>
+      <c r="L331" s="42"/>
+      <c r="M331" s="42"/>
+      <c r="N331" s="42"/>
+      <c r="O331" s="42"/>
+      <c r="P331" s="42"/>
+      <c r="Q331" s="42"/>
+      <c r="R331" s="42"/>
+      <c r="S331" s="42"/>
+      <c r="T331" s="42"/>
+      <c r="U331" s="42"/>
+      <c r="V331" s="42"/>
+      <c r="W331" s="42"/>
+      <c r="X331" s="42"/>
+      <c r="Y331" s="42"/>
+      <c r="Z331" s="42"/>
+      <c r="AA331" s="42"/>
     </row>
     <row r="332" spans="1:27" ht="14">
       <c r="A332" s="30" t="s">
@@ -19317,7 +19300,7 @@
         <v>2024</v>
       </c>
       <c r="H332" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I332" s="32" t="s">
         <v>30</v>
@@ -19360,37 +19343,37 @@
       <c r="F333" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="G333" s="41">
+      <c r="G333" s="43">
         <v>2024</v>
       </c>
-      <c r="H333" s="42" t="s">
+      <c r="H333" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="I333" s="43" t="s">
+      <c r="I333" s="45" t="s">
         <v>30</v>
       </c>
       <c r="J333" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K333" s="44" t="s">
+      <c r="K333" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="L333" s="46"/>
-      <c r="M333" s="46"/>
-      <c r="N333" s="46"/>
-      <c r="O333" s="46"/>
-      <c r="P333" s="46"/>
-      <c r="Q333" s="46"/>
-      <c r="R333" s="46"/>
-      <c r="S333" s="46"/>
-      <c r="T333" s="46"/>
-      <c r="U333" s="46"/>
-      <c r="V333" s="46"/>
-      <c r="W333" s="46"/>
-      <c r="X333" s="46"/>
-      <c r="Y333" s="46"/>
-      <c r="Z333" s="46"/>
-      <c r="AA333" s="46"/>
+      <c r="L333" s="42"/>
+      <c r="M333" s="42"/>
+      <c r="N333" s="42"/>
+      <c r="O333" s="42"/>
+      <c r="P333" s="42"/>
+      <c r="Q333" s="42"/>
+      <c r="R333" s="42"/>
+      <c r="S333" s="42"/>
+      <c r="T333" s="42"/>
+      <c r="U333" s="42"/>
+      <c r="V333" s="42"/>
+      <c r="W333" s="42"/>
+      <c r="X333" s="42"/>
+      <c r="Y333" s="42"/>
+      <c r="Z333" s="42"/>
+      <c r="AA333" s="42"/>
     </row>
     <row r="334" spans="1:27" ht="13">
       <c r="A334" s="12" t="s">
@@ -19446,7 +19429,7 @@
         <v>184</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K335" s="37" t="s">
         <v>405</v>
@@ -19587,7 +19570,7 @@
         <v>184</v>
       </c>
       <c r="J338" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K338" s="37" t="s">
         <v>158</v>
@@ -19675,7 +19658,7 @@
         <v>2024</v>
       </c>
       <c r="H340" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I340" s="32" t="s">
         <v>111</v>
@@ -19822,7 +19805,7 @@
         <v>184</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K343" s="37" t="s">
         <v>158</v>
@@ -19957,7 +19940,7 @@
         <v>2024</v>
       </c>
       <c r="H346" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I346" s="32" t="s">
         <v>111</v>
@@ -20088,7 +20071,7 @@
         <v>51</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K349" s="37" t="s">
         <v>421</v>
@@ -20270,13 +20253,13 @@
         <v>2024</v>
       </c>
       <c r="H353" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I353" s="32" t="s">
         <v>16</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K353" s="37"/>
       <c r="L353" s="2"/>
@@ -20315,31 +20298,31 @@
         <v>2024</v>
       </c>
       <c r="H354" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I354" s="75" t="s">
         <v>16</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K354" s="38"/>
-      <c r="L354" s="46"/>
-      <c r="M354" s="46"/>
-      <c r="N354" s="46"/>
-      <c r="O354" s="46"/>
-      <c r="P354" s="46"/>
-      <c r="Q354" s="46"/>
-      <c r="R354" s="46"/>
-      <c r="S354" s="46"/>
-      <c r="T354" s="46"/>
-      <c r="U354" s="46"/>
-      <c r="V354" s="46"/>
-      <c r="W354" s="46"/>
-      <c r="X354" s="46"/>
-      <c r="Y354" s="46"/>
-      <c r="Z354" s="46"/>
-      <c r="AA354" s="46"/>
+      <c r="L354" s="42"/>
+      <c r="M354" s="42"/>
+      <c r="N354" s="42"/>
+      <c r="O354" s="42"/>
+      <c r="P354" s="42"/>
+      <c r="Q354" s="42"/>
+      <c r="R354" s="42"/>
+      <c r="S354" s="42"/>
+      <c r="T354" s="42"/>
+      <c r="U354" s="42"/>
+      <c r="V354" s="42"/>
+      <c r="W354" s="42"/>
+      <c r="X354" s="42"/>
+      <c r="Y354" s="42"/>
+      <c r="Z354" s="42"/>
+      <c r="AA354" s="42"/>
     </row>
     <row r="355" spans="1:27" ht="13">
       <c r="A355" s="12" t="s">
@@ -20387,37 +20370,37 @@
       <c r="F356" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="G356" s="41">
+      <c r="G356" s="43">
         <v>2024</v>
       </c>
       <c r="H356" s="74" t="s">
         <v>45</v>
       </c>
       <c r="I356" s="75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K356" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K356" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="L356" s="46"/>
-      <c r="M356" s="46"/>
-      <c r="N356" s="46"/>
-      <c r="O356" s="46"/>
-      <c r="P356" s="46"/>
-      <c r="Q356" s="46"/>
-      <c r="R356" s="46"/>
-      <c r="S356" s="46"/>
-      <c r="T356" s="46"/>
-      <c r="U356" s="46"/>
-      <c r="V356" s="46"/>
-      <c r="W356" s="46"/>
-      <c r="X356" s="46"/>
-      <c r="Y356" s="46"/>
-      <c r="Z356" s="46"/>
-      <c r="AA356" s="46"/>
+      <c r="L356" s="42"/>
+      <c r="M356" s="42"/>
+      <c r="N356" s="42"/>
+      <c r="O356" s="42"/>
+      <c r="P356" s="42"/>
+      <c r="Q356" s="42"/>
+      <c r="R356" s="42"/>
+      <c r="S356" s="42"/>
+      <c r="T356" s="42"/>
+      <c r="U356" s="42"/>
+      <c r="V356" s="42"/>
+      <c r="W356" s="42"/>
+      <c r="X356" s="42"/>
+      <c r="Y356" s="42"/>
+      <c r="Z356" s="42"/>
+      <c r="AA356" s="42"/>
     </row>
     <row r="357" spans="1:27" ht="28">
       <c r="A357" s="30" t="s">
@@ -20526,37 +20509,37 @@
       <c r="F359" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="G359" s="41">
+      <c r="G359" s="43">
         <v>2024</v>
       </c>
-      <c r="H359" s="42" t="s">
+      <c r="H359" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="I359" s="43" t="s">
+      <c r="I359" s="45" t="s">
         <v>434</v>
       </c>
       <c r="J359" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="K359" s="44" t="s">
+      <c r="K359" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="L359" s="46"/>
-      <c r="M359" s="46"/>
-      <c r="N359" s="46"/>
-      <c r="O359" s="46"/>
-      <c r="P359" s="46"/>
-      <c r="Q359" s="46"/>
-      <c r="R359" s="46"/>
-      <c r="S359" s="46"/>
-      <c r="T359" s="46"/>
-      <c r="U359" s="46"/>
-      <c r="V359" s="46"/>
-      <c r="W359" s="46"/>
-      <c r="X359" s="46"/>
-      <c r="Y359" s="46"/>
-      <c r="Z359" s="46"/>
-      <c r="AA359" s="46"/>
+      <c r="L359" s="42"/>
+      <c r="M359" s="42"/>
+      <c r="N359" s="42"/>
+      <c r="O359" s="42"/>
+      <c r="P359" s="42"/>
+      <c r="Q359" s="42"/>
+      <c r="R359" s="42"/>
+      <c r="S359" s="42"/>
+      <c r="T359" s="42"/>
+      <c r="U359" s="42"/>
+      <c r="V359" s="42"/>
+      <c r="W359" s="42"/>
+      <c r="X359" s="42"/>
+      <c r="Y359" s="42"/>
+      <c r="Z359" s="42"/>
+      <c r="AA359" s="42"/>
     </row>
     <row r="360" spans="1:27" ht="14">
       <c r="A360" s="30" t="s">
@@ -21548,7 +21531,7 @@
         <v>2024</v>
       </c>
       <c r="H381" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I381" s="32" t="s">
         <v>111</v>
@@ -21595,7 +21578,7 @@
         <v>2024</v>
       </c>
       <c r="H382" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I382" s="32" t="s">
         <v>111</v>
@@ -21642,7 +21625,7 @@
         <v>2024</v>
       </c>
       <c r="H383" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I383" s="32" t="s">
         <v>111</v>
@@ -21689,7 +21672,7 @@
         <v>2024</v>
       </c>
       <c r="H384" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I384" s="32" t="s">
         <v>111</v>
@@ -21736,7 +21719,7 @@
         <v>2024</v>
       </c>
       <c r="H385" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I385" s="32" t="s">
         <v>111</v>
@@ -21783,7 +21766,7 @@
         <v>2024</v>
       </c>
       <c r="H386" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I386" s="32" t="s">
         <v>111</v>
@@ -21830,7 +21813,7 @@
         <v>2024</v>
       </c>
       <c r="H387" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I387" s="32" t="s">
         <v>111</v>
@@ -21877,7 +21860,7 @@
         <v>2024</v>
       </c>
       <c r="H388" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I388" s="32" t="s">
         <v>111</v>
@@ -21930,7 +21913,7 @@
         <v>184</v>
       </c>
       <c r="J389" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K389" s="37" t="s">
         <v>447</v>
@@ -22476,7 +22459,7 @@
         <v>455</v>
       </c>
       <c r="J401" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K401" s="37" t="s">
         <v>456</v>
@@ -22916,7 +22899,7 @@
         <v>2024</v>
       </c>
       <c r="H411" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I411" s="32" t="s">
         <v>184</v>
@@ -22969,7 +22952,7 @@
         <v>466</v>
       </c>
       <c r="J412" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K412" s="37" t="s">
         <v>467</v>
@@ -23458,7 +23441,7 @@
         <v>2025</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I423" s="2" t="s">
         <v>115</v>
@@ -23548,7 +23531,7 @@
         <v>2025</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I425" s="2" t="s">
         <v>115</v>
@@ -23638,7 +23621,7 @@
         <v>2025</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I427" s="2" t="s">
         <v>115</v>
@@ -23728,7 +23711,7 @@
         <v>2025</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I429" s="2" t="s">
         <v>115</v>
@@ -23818,7 +23801,7 @@
         <v>2025</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I431" s="2" t="s">
         <v>115</v>
@@ -23908,7 +23891,7 @@
         <v>2025</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I433" s="2" t="s">
         <v>111</v>
@@ -23998,7 +23981,7 @@
         <v>2025</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I435" s="2" t="s">
         <v>111</v>
@@ -24075,7 +24058,7 @@
     </row>
     <row r="437" spans="1:27" ht="26">
       <c r="A437" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B437" s="35">
         <v>10</v>
@@ -24086,7 +24069,7 @@
       <c r="D437" s="30"/>
       <c r="E437" s="30"/>
       <c r="F437" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G437" s="22">
         <v>1990</v>
@@ -24122,7 +24105,7 @@
     </row>
     <row r="438" spans="1:27" ht="26">
       <c r="A438" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B438" s="35">
         <v>9</v>
@@ -24133,7 +24116,7 @@
       <c r="D438" s="30"/>
       <c r="E438" s="30"/>
       <c r="F438" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G438" s="22">
         <v>1990</v>
@@ -24283,7 +24266,7 @@
         <v>485</v>
       </c>
       <c r="I441" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J441" s="2" t="s">
         <v>17</v>
@@ -24360,7 +24343,7 @@
         <v>111</v>
       </c>
       <c r="J443" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K443" s="37" t="s">
         <v>494</v>
@@ -24450,10 +24433,10 @@
         <v>15</v>
       </c>
       <c r="I446" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J446" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K446" s="81" t="s">
         <v>499</v>
@@ -24494,7 +24477,7 @@
         <v>2025</v>
       </c>
       <c r="H447" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I447" s="32" t="s">
         <v>46</v>
@@ -24544,7 +24527,7 @@
         <v>35</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>17</v>
@@ -24591,10 +24574,10 @@
         <v>15</v>
       </c>
       <c r="I449" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J449" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K449" s="81" t="s">
         <v>506</v>
@@ -24635,7 +24618,7 @@
         <v>1990</v>
       </c>
       <c r="H450" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I450" s="25" t="s">
         <v>24</v>
@@ -24682,13 +24665,13 @@
         <v>2022</v>
       </c>
       <c r="H451" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I451" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J451" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K451" s="81" t="s">
         <v>509</v>
@@ -24729,13 +24712,13 @@
         <v>1967</v>
       </c>
       <c r="H452" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I452" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J452" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K452" s="81" t="s">
         <v>510</v>
@@ -24776,13 +24759,13 @@
         <v>1967</v>
       </c>
       <c r="H453" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I453" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J453" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K453" s="81" t="s">
         <v>511</v>
@@ -24823,13 +24806,13 @@
         <v>1967</v>
       </c>
       <c r="H454" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I454" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J454" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K454" s="81" t="s">
         <v>512</v>
@@ -24870,13 +24853,13 @@
         <v>2022</v>
       </c>
       <c r="H455" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I455" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J455" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K455" s="81" t="s">
         <v>515</v>
@@ -24917,13 +24900,13 @@
         <v>1967</v>
       </c>
       <c r="H456" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I456" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J456" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K456" s="81" t="s">
         <v>516</v>
@@ -24964,13 +24947,13 @@
         <v>1967</v>
       </c>
       <c r="H457" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I457" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J457" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K457" s="81" t="s">
         <v>517</v>
@@ -25011,13 +24994,13 @@
         <v>2016</v>
       </c>
       <c r="H458" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I458" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J458" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K458" s="81" t="s">
         <v>518</v>
@@ -25041,7 +25024,7 @@
     </row>
     <row r="459" spans="1:27" ht="42">
       <c r="A459" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B459" s="25">
         <v>18</v>
@@ -25052,7 +25035,7 @@
       <c r="D459" s="25"/>
       <c r="E459" s="25"/>
       <c r="F459" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G459" s="26">
         <v>2016</v>
@@ -25105,13 +25088,13 @@
         <v>2022</v>
       </c>
       <c r="H460" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I460" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J460" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K460" s="81" t="s">
         <v>520</v>
@@ -25141,7 +25124,7 @@
       <c r="C461" s="14"/>
       <c r="D461" s="14"/>
       <c r="E461" s="14"/>
-      <c r="F461" s="145"/>
+      <c r="F461" s="15"/>
       <c r="G461" s="16"/>
       <c r="H461" s="15"/>
       <c r="I461" s="17"/>
@@ -25183,13 +25166,13 @@
         <v>2000</v>
       </c>
       <c r="H462" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I462" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J462" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K462" s="81" t="s">
         <v>522</v>
@@ -25230,13 +25213,13 @@
         <v>2000</v>
       </c>
       <c r="H463" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I463" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J463" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K463" s="81" t="s">
         <v>523</v>
@@ -25277,13 +25260,13 @@
         <v>1967</v>
       </c>
       <c r="H464" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I464" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J464" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K464" s="81" t="s">
         <v>525</v>
@@ -25324,13 +25307,13 @@
         <v>1967</v>
       </c>
       <c r="H465" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I465" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J465" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K465" s="82" t="s">
         <v>527</v>
@@ -25371,13 +25354,13 @@
         <v>2022</v>
       </c>
       <c r="H466" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I466" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J466" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K466" s="82" t="s">
         <v>528</v>
@@ -25418,13 +25401,13 @@
         <v>2016</v>
       </c>
       <c r="H467" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I467" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J467" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K467" s="82" t="s">
         <v>531</v>
@@ -25465,13 +25448,13 @@
         <v>1967</v>
       </c>
       <c r="H468" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I468" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J468" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K468" s="82" t="s">
         <v>532</v>
@@ -25512,13 +25495,13 @@
         <v>1990</v>
       </c>
       <c r="H469" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I469" s="25" t="s">
         <v>16</v>
       </c>
       <c r="J469" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K469" s="82" t="s">
         <v>535</v>
@@ -25559,13 +25542,13 @@
         <v>2022</v>
       </c>
       <c r="H470" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I470" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J470" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K470" s="82" t="s">
         <v>536</v>
@@ -25606,13 +25589,13 @@
         <v>1967</v>
       </c>
       <c r="H471" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I471" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J471" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K471" s="82" t="s">
         <v>537</v>
@@ -25653,13 +25636,13 @@
         <v>1967</v>
       </c>
       <c r="H472" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I472" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J472" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K472" s="82" t="s">
         <v>538</v>
@@ -25700,13 +25683,13 @@
         <v>1967</v>
       </c>
       <c r="H473" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I473" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J473" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K473" s="82" t="s">
         <v>539</v>
@@ -25747,13 +25730,13 @@
         <v>2016</v>
       </c>
       <c r="H474" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I474" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J474" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K474" s="82" t="s">
         <v>541</v>
@@ -25794,13 +25777,13 @@
         <v>1990</v>
       </c>
       <c r="H475" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I475" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J475" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K475" s="82" t="s">
         <v>542</v>
@@ -25841,13 +25824,13 @@
         <v>2016</v>
       </c>
       <c r="H476" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I476" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J476" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K476" s="82" t="s">
         <v>544</v>
@@ -25888,13 +25871,13 @@
         <v>2016</v>
       </c>
       <c r="H477" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I477" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J477" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K477" s="82" t="s">
         <v>546</v>
@@ -25935,13 +25918,13 @@
         <v>1967</v>
       </c>
       <c r="H478" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I478" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J478" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K478" s="82" t="s">
         <v>547</v>
@@ -25982,11 +25965,11 @@
         <v>2022</v>
       </c>
       <c r="H479" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I479" s="25"/>
       <c r="J479" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K479" s="82" t="s">
         <v>550</v>
@@ -26027,13 +26010,13 @@
         <v>1967</v>
       </c>
       <c r="H480" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I480" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J480" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K480" s="82" t="s">
         <v>551</v>
@@ -26074,13 +26057,13 @@
         <v>2016</v>
       </c>
       <c r="H481" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I481" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J481" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K481" s="82" t="s">
         <v>553</v>
@@ -26121,11 +26104,11 @@
         <v>2022</v>
       </c>
       <c r="H482" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I482" s="25"/>
       <c r="J482" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K482" s="82" t="s">
         <v>555</v>
@@ -26166,13 +26149,13 @@
         <v>1967</v>
       </c>
       <c r="H483" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I483" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J483" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K483" s="82" t="s">
         <v>556</v>
@@ -26213,13 +26196,13 @@
         <v>2022</v>
       </c>
       <c r="H484" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I484" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J484" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K484" s="82" t="s">
         <v>558</v>
@@ -26260,13 +26243,13 @@
         <v>1967</v>
       </c>
       <c r="H485" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I485" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J485" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K485" s="82" t="s">
         <v>560</v>
@@ -26307,11 +26290,11 @@
         <v>2022</v>
       </c>
       <c r="H486" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I486" s="25"/>
       <c r="J486" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K486" s="82" t="s">
         <v>562</v>
@@ -26356,7 +26339,7 @@
       </c>
       <c r="I487" s="25"/>
       <c r="J487" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K487" s="82" t="s">
         <v>566</v>
@@ -26397,13 +26380,13 @@
         <v>1967</v>
       </c>
       <c r="H488" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I488" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J488" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K488" s="82" t="s">
         <v>567</v>
@@ -26444,13 +26427,13 @@
         <v>1967</v>
       </c>
       <c r="H489" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I489" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J489" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K489" s="82" t="s">
         <v>568</v>
@@ -26491,13 +26474,13 @@
         <v>2022</v>
       </c>
       <c r="H490" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I490" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J490" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K490" s="82" t="s">
         <v>570</v>
@@ -26538,13 +26521,13 @@
         <v>1967</v>
       </c>
       <c r="H491" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I491" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J491" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K491" s="82" t="s">
         <v>571</v>
@@ -26585,13 +26568,13 @@
         <v>2016</v>
       </c>
       <c r="H492" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I492" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J492" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K492" s="82" t="s">
         <v>573</v>
@@ -26632,13 +26615,13 @@
         <v>2016</v>
       </c>
       <c r="H493" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I493" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J493" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K493" s="82" t="s">
         <v>574</v>
@@ -26679,13 +26662,13 @@
         <v>1990</v>
       </c>
       <c r="H494" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I494" s="25" t="s">
         <v>16</v>
       </c>
       <c r="J494" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K494" s="82" t="s">
         <v>575</v>
@@ -26726,13 +26709,13 @@
         <v>2016</v>
       </c>
       <c r="H495" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I495" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J495" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K495" s="82" t="s">
         <v>576</v>
@@ -26773,13 +26756,13 @@
         <v>1967</v>
       </c>
       <c r="H496" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I496" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J496" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K496" s="82" t="s">
         <v>577</v>
@@ -26820,13 +26803,13 @@
         <v>1990</v>
       </c>
       <c r="H497" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I497" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J497" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K497" s="82" t="s">
         <v>579</v>
@@ -26867,13 +26850,13 @@
         <v>1990</v>
       </c>
       <c r="H498" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I498" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J498" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K498" s="82" t="s">
         <v>581</v>
@@ -26914,13 +26897,13 @@
         <v>1990</v>
       </c>
       <c r="H499" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I499" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J499" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K499" s="82" t="s">
         <v>582</v>
@@ -26961,13 +26944,13 @@
         <v>1967</v>
       </c>
       <c r="H500" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I500" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J500" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K500" s="82" t="s">
         <v>583</v>
@@ -27008,13 +26991,13 @@
         <v>1967</v>
       </c>
       <c r="H501" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I501" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J501" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K501" s="82" t="s">
         <v>584</v>
@@ -27055,13 +27038,13 @@
         <v>2001</v>
       </c>
       <c r="H502" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I502" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J502" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K502" s="82" t="s">
         <v>585</v>
@@ -27102,13 +27085,13 @@
         <v>1967</v>
       </c>
       <c r="H503" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I503" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J503" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K503" s="82" t="s">
         <v>587</v>
@@ -27149,13 +27132,13 @@
         <v>1967</v>
       </c>
       <c r="H504" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I504" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J504" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K504" s="82" t="s">
         <v>588</v>
@@ -27196,13 +27179,13 @@
         <v>2016</v>
       </c>
       <c r="H505" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I505" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K505" s="82" t="s">
         <v>589</v>
@@ -27243,13 +27226,13 @@
         <v>2016</v>
       </c>
       <c r="H506" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I506" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K506" s="82" t="s">
         <v>590</v>
@@ -27290,13 +27273,13 @@
         <v>1967</v>
       </c>
       <c r="H507" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I507" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J507" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K507" s="82" t="s">
         <v>591</v>
@@ -27337,13 +27320,13 @@
         <v>1967</v>
       </c>
       <c r="H508" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I508" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J508" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K508" s="82" t="s">
         <v>592</v>
@@ -27384,13 +27367,13 @@
         <v>2016</v>
       </c>
       <c r="H509" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I509" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J509" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K509" s="82" t="s">
         <v>594</v>
@@ -27431,13 +27414,13 @@
         <v>2022</v>
       </c>
       <c r="H510" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I510" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J510" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K510" s="82" t="s">
         <v>597</v>
@@ -27478,13 +27461,13 @@
         <v>1967</v>
       </c>
       <c r="H511" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I511" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J511" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K511" s="82" t="s">
         <v>598</v>
@@ -27525,11 +27508,11 @@
         <v>1990</v>
       </c>
       <c r="H512" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I512" s="25"/>
       <c r="J512" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K512" s="82" t="s">
         <v>599</v>
@@ -27570,13 +27553,13 @@
         <v>1967</v>
       </c>
       <c r="H513" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I513" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J513" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K513" s="82" t="s">
         <v>600</v>
@@ -27617,13 +27600,13 @@
         <v>1967</v>
       </c>
       <c r="H514" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I514" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J514" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K514" s="82" t="s">
         <v>601</v>
@@ -27664,13 +27647,13 @@
         <v>1990</v>
       </c>
       <c r="H515" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I515" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J515" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K515" s="82" t="s">
         <v>603</v>
@@ -27711,13 +27694,13 @@
         <v>2016</v>
       </c>
       <c r="H516" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I516" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J516" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K516" s="82" t="s">
         <v>604</v>
@@ -27758,11 +27741,11 @@
         <v>2022</v>
       </c>
       <c r="H517" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I517" s="25"/>
       <c r="J517" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K517" s="82" t="s">
         <v>605</v>
@@ -27803,13 +27786,13 @@
         <v>1967</v>
       </c>
       <c r="H518" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I518" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J518" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K518" s="82" t="s">
         <v>606</v>
@@ -27850,13 +27833,13 @@
         <v>1967</v>
       </c>
       <c r="H519" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I519" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J519" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K519" s="82" t="s">
         <v>607</v>
@@ -27897,13 +27880,13 @@
         <v>1967</v>
       </c>
       <c r="H520" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I520" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J520" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K520" s="82" t="s">
         <v>608</v>
@@ -27985,37 +27968,37 @@
       <c r="F522" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="G522" s="41">
+      <c r="G522" s="43">
         <v>2024</v>
       </c>
       <c r="H522" s="74" t="s">
         <v>45</v>
       </c>
       <c r="I522" s="75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J522" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K522" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K522" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="L522" s="46"/>
-      <c r="M522" s="46"/>
-      <c r="N522" s="46"/>
-      <c r="O522" s="46"/>
-      <c r="P522" s="46"/>
-      <c r="Q522" s="46"/>
-      <c r="R522" s="46"/>
-      <c r="S522" s="46"/>
-      <c r="T522" s="46"/>
-      <c r="U522" s="46"/>
-      <c r="V522" s="46"/>
-      <c r="W522" s="46"/>
-      <c r="X522" s="46"/>
-      <c r="Y522" s="46"/>
-      <c r="Z522" s="46"/>
-      <c r="AA522" s="46"/>
+      <c r="L522" s="42"/>
+      <c r="M522" s="42"/>
+      <c r="N522" s="42"/>
+      <c r="O522" s="42"/>
+      <c r="P522" s="42"/>
+      <c r="Q522" s="42"/>
+      <c r="R522" s="42"/>
+      <c r="S522" s="42"/>
+      <c r="T522" s="42"/>
+      <c r="U522" s="42"/>
+      <c r="V522" s="42"/>
+      <c r="W522" s="42"/>
+      <c r="X522" s="42"/>
+      <c r="Y522" s="42"/>
+      <c r="Z522" s="42"/>
+      <c r="AA522" s="42"/>
     </row>
     <row r="523" spans="1:27" ht="28">
       <c r="A523" s="25" t="s">
@@ -28036,13 +28019,13 @@
         <v>1967</v>
       </c>
       <c r="H523" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I523" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J523" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K523" s="82" t="s">
         <v>612</v>
@@ -28083,11 +28066,11 @@
         <v>1967</v>
       </c>
       <c r="H524" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I524" s="25"/>
       <c r="J524" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K524" s="82" t="s">
         <v>613</v>
@@ -28128,11 +28111,11 @@
         <v>1967</v>
       </c>
       <c r="H525" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I525" s="25"/>
       <c r="J525" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K525" s="82" t="s">
         <v>614</v>
@@ -28173,11 +28156,11 @@
         <v>1990</v>
       </c>
       <c r="H526" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I526" s="25"/>
       <c r="J526" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K526" s="82" t="s">
         <v>615</v>
@@ -28218,11 +28201,11 @@
         <v>1990</v>
       </c>
       <c r="H527" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I527" s="25"/>
       <c r="J527" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K527" s="82" t="s">
         <v>617</v>
@@ -28248,18 +28231,18 @@
       <c r="A528" s="79" t="s">
         <v>618</v>
       </c>
-      <c r="B528" s="45">
+      <c r="B528" s="41">
         <v>21</v>
       </c>
-      <c r="C528" s="45">
+      <c r="C528" s="41">
         <v>4.5</v>
       </c>
-      <c r="D528" s="46"/>
-      <c r="E528" s="46"/>
+      <c r="D528" s="42"/>
+      <c r="E528" s="42"/>
       <c r="F528" s="79" t="s">
         <v>619</v>
       </c>
-      <c r="G528" s="45">
+      <c r="G528" s="41">
         <v>2024</v>
       </c>
       <c r="H528" s="79" t="s">
@@ -28269,27 +28252,27 @@
         <v>51</v>
       </c>
       <c r="J528" s="79" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K528" s="90" t="s">
         <v>621</v>
       </c>
-      <c r="L528" s="46"/>
-      <c r="M528" s="46"/>
-      <c r="N528" s="46"/>
-      <c r="O528" s="46"/>
-      <c r="P528" s="46"/>
-      <c r="Q528" s="46"/>
-      <c r="R528" s="46"/>
-      <c r="S528" s="46"/>
-      <c r="T528" s="46"/>
-      <c r="U528" s="46"/>
-      <c r="V528" s="46"/>
-      <c r="W528" s="46"/>
-      <c r="X528" s="46"/>
-      <c r="Y528" s="46"/>
-      <c r="Z528" s="46"/>
-      <c r="AA528" s="46"/>
+      <c r="L528" s="42"/>
+      <c r="M528" s="42"/>
+      <c r="N528" s="42"/>
+      <c r="O528" s="42"/>
+      <c r="P528" s="42"/>
+      <c r="Q528" s="42"/>
+      <c r="R528" s="42"/>
+      <c r="S528" s="42"/>
+      <c r="T528" s="42"/>
+      <c r="U528" s="42"/>
+      <c r="V528" s="42"/>
+      <c r="W528" s="42"/>
+      <c r="X528" s="42"/>
+      <c r="Y528" s="42"/>
+      <c r="Z528" s="42"/>
+      <c r="AA528" s="42"/>
     </row>
     <row r="529" spans="1:27" ht="26">
       <c r="A529" s="2" t="s">
@@ -28310,7 +28293,7 @@
         <v>2025</v>
       </c>
       <c r="H529" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I529" s="2" t="s">
         <v>111</v>
@@ -28404,7 +28387,7 @@
         <v>2025</v>
       </c>
       <c r="H531" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I531" s="2" t="s">
         <v>111</v>
@@ -28498,7 +28481,7 @@
         <v>2025</v>
       </c>
       <c r="H533" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I533" s="2" t="s">
         <v>111</v>
@@ -28545,13 +28528,13 @@
         <v>2024</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I534" s="2" t="s">
         <v>51</v>
       </c>
       <c r="J534" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K534" s="3" t="s">
         <v>624</v>
@@ -28639,7 +28622,7 @@
         <v>2025</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I536" s="2" t="s">
         <v>111</v>
@@ -28780,7 +28763,7 @@
         <v>2025</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I539" s="2" t="s">
         <v>111</v>
@@ -28880,7 +28863,7 @@
         <v>51</v>
       </c>
       <c r="J541" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K541" s="3" t="s">
         <v>627</v>
@@ -28981,19 +28964,19 @@
       <c r="AA543" s="2"/>
     </row>
     <row r="544" spans="1:27" ht="13">
-      <c r="A544" s="146" t="s">
+      <c r="A544" s="144" t="s">
         <v>629</v>
       </c>
-      <c r="B544" s="147"/>
-      <c r="C544" s="148"/>
-      <c r="D544" s="148"/>
-      <c r="E544" s="148"/>
-      <c r="F544" s="149"/>
-      <c r="G544" s="150"/>
-      <c r="H544" s="149"/>
-      <c r="I544" s="151"/>
-      <c r="J544" s="152"/>
-      <c r="K544" s="153"/>
+      <c r="B544" s="145"/>
+      <c r="C544" s="146"/>
+      <c r="D544" s="146"/>
+      <c r="E544" s="146"/>
+      <c r="F544" s="147"/>
+      <c r="G544" s="148"/>
+      <c r="H544" s="147"/>
+      <c r="I544" s="149"/>
+      <c r="J544" s="150"/>
+      <c r="K544" s="151"/>
       <c r="L544" s="2"/>
       <c r="M544" s="2"/>
       <c r="N544" s="2"/>
@@ -29036,7 +29019,7 @@
         <v>51</v>
       </c>
       <c r="J545" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K545" s="94" t="s">
         <v>630</v>
@@ -29124,13 +29107,13 @@
         <v>2002</v>
       </c>
       <c r="H547" s="93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I547" s="93" t="s">
         <v>184</v>
       </c>
       <c r="J547" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K547" s="94" t="s">
         <v>639</v>
@@ -29224,7 +29207,7 @@
         <v>51</v>
       </c>
       <c r="J549" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K549" s="94" t="s">
         <v>646</v>
@@ -29268,10 +29251,10 @@
         <v>481</v>
       </c>
       <c r="I550" s="97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J550" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K550" s="99" t="s">
         <v>649</v>
@@ -29315,10 +29298,10 @@
         <v>481</v>
       </c>
       <c r="I551" s="93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J551" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K551" s="94" t="s">
         <v>650</v>
@@ -29359,13 +29342,13 @@
         <v>2002</v>
       </c>
       <c r="H552" s="97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I552" s="97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J552" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K552" s="99" t="s">
         <v>652</v>
@@ -29412,7 +29395,7 @@
         <v>46</v>
       </c>
       <c r="J553" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K553" s="94" t="s">
         <v>655</v>
@@ -29453,7 +29436,7 @@
         <v>2002</v>
       </c>
       <c r="H554" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I554" s="97" t="s">
         <v>16</v>
@@ -29500,7 +29483,7 @@
         <v>2002</v>
       </c>
       <c r="H555" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I555" s="93" t="s">
         <v>16</v>
@@ -29547,7 +29530,7 @@
         <v>2002</v>
       </c>
       <c r="H556" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I556" s="97" t="s">
         <v>16</v>
@@ -29597,10 +29580,10 @@
         <v>424</v>
       </c>
       <c r="I557" s="93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J557" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K557" s="94" t="s">
         <v>662</v>
@@ -29624,7 +29607,7 @@
     </row>
     <row r="558" spans="1:27" ht="14">
       <c r="A558" s="95" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B558" s="96">
         <v>1</v>
@@ -29635,7 +29618,7 @@
       <c r="D558" s="97"/>
       <c r="E558" s="97"/>
       <c r="F558" s="107" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G558" s="97">
         <v>2002</v>
@@ -29691,10 +29674,10 @@
         <v>481</v>
       </c>
       <c r="I559" s="93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J559" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K559" s="94" t="s">
         <v>664</v>
@@ -29735,13 +29718,13 @@
         <v>2002</v>
       </c>
       <c r="H560" s="97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I560" s="97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J560" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K560" s="99" t="s">
         <v>665</v>
@@ -29788,7 +29771,7 @@
         <v>666</v>
       </c>
       <c r="J561" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K561" s="94" t="s">
         <v>667</v>
@@ -29835,7 +29818,7 @@
         <v>666</v>
       </c>
       <c r="J562" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K562" s="99" t="s">
         <v>668</v>
@@ -29882,7 +29865,7 @@
         <v>666</v>
       </c>
       <c r="J563" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K563" s="94" t="s">
         <v>669</v>
@@ -29929,7 +29912,7 @@
         <v>51</v>
       </c>
       <c r="J564" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K564" s="99" t="s">
         <v>670</v>
@@ -29976,7 +29959,7 @@
         <v>51</v>
       </c>
       <c r="J565" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K565" s="94" t="s">
         <v>671</v>
@@ -30020,10 +30003,10 @@
         <v>481</v>
       </c>
       <c r="I566" s="97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J566" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K566" s="99" t="s">
         <v>674</v>
@@ -30067,10 +30050,10 @@
         <v>481</v>
       </c>
       <c r="I567" s="93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J567" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K567" s="94" t="s">
         <v>675</v>
@@ -30114,10 +30097,10 @@
         <v>481</v>
       </c>
       <c r="I568" s="97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J568" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K568" s="99" t="s">
         <v>676</v>
@@ -30141,7 +30124,7 @@
     </row>
     <row r="569" spans="1:27" ht="14">
       <c r="A569" s="91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B569" s="93">
         <v>3.5</v>
@@ -30158,13 +30141,13 @@
         <v>2002</v>
       </c>
       <c r="H569" s="93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I569" s="93" t="s">
         <v>46</v>
       </c>
       <c r="J569" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K569" s="94" t="s">
         <v>678</v>
@@ -30205,13 +30188,13 @@
         <v>2002</v>
       </c>
       <c r="H570" s="97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I570" s="97" t="s">
         <v>184</v>
       </c>
       <c r="J570" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K570" s="99" t="s">
         <v>679</v>
@@ -30258,7 +30241,7 @@
         <v>46</v>
       </c>
       <c r="J571" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K571" s="94" t="s">
         <v>682</v>
@@ -30305,7 +30288,7 @@
         <v>46</v>
       </c>
       <c r="J572" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K572" s="99" t="s">
         <v>684</v>
@@ -30352,7 +30335,7 @@
         <v>46</v>
       </c>
       <c r="J573" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K573" s="94" t="s">
         <v>684</v>
@@ -30818,7 +30801,7 @@
         <v>46</v>
       </c>
       <c r="J583" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K583" s="94" t="s">
         <v>690</v>
@@ -31094,7 +31077,7 @@
         <v>2002</v>
       </c>
       <c r="H589" s="66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I589" s="66" t="s">
         <v>24</v>
@@ -31147,7 +31130,7 @@
         <v>51</v>
       </c>
       <c r="J590" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K590" s="99" t="s">
         <v>693</v>
@@ -31194,7 +31177,7 @@
         <v>51</v>
       </c>
       <c r="J591" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K591" s="94"/>
       <c r="L591" s="2"/>
@@ -31239,7 +31222,7 @@
         <v>51</v>
       </c>
       <c r="J592" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K592" s="99"/>
       <c r="L592" s="2"/>
@@ -31284,7 +31267,7 @@
         <v>184</v>
       </c>
       <c r="J593" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K593" s="94" t="s">
         <v>696</v>
@@ -31325,7 +31308,7 @@
         <v>2023</v>
       </c>
       <c r="H594" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I594" s="32" t="s">
         <v>36</v>
@@ -31378,7 +31361,7 @@
         <v>51</v>
       </c>
       <c r="J595" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K595" s="94"/>
       <c r="L595" s="2"/>
@@ -31417,7 +31400,7 @@
         <v>2002</v>
       </c>
       <c r="H596" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I596" s="32" t="s">
         <v>36</v>
@@ -31468,7 +31451,7 @@
         <v>51</v>
       </c>
       <c r="J597" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K597" s="94"/>
       <c r="L597" s="2"/>
@@ -31490,7 +31473,7 @@
     </row>
     <row r="598" spans="1:27" ht="65">
       <c r="A598" s="97" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B598" s="97">
         <v>-3</v>
@@ -31501,7 +31484,7 @@
       <c r="D598" s="97"/>
       <c r="E598" s="97"/>
       <c r="F598" s="97" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G598" s="97">
         <v>2002</v>
@@ -31556,7 +31539,7 @@
         <v>51</v>
       </c>
       <c r="J599" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K599" s="94"/>
       <c r="L599" s="2"/>
@@ -31601,7 +31584,7 @@
         <v>51</v>
       </c>
       <c r="J600" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K600" s="99"/>
       <c r="L600" s="2"/>
@@ -31646,7 +31629,7 @@
         <v>51</v>
       </c>
       <c r="J601" s="93" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K601" s="94"/>
       <c r="L601" s="2"/>
@@ -31691,7 +31674,7 @@
         <v>111</v>
       </c>
       <c r="J602" s="97" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K602" s="99" t="s">
         <v>703</v>
@@ -31732,7 +31715,7 @@
         <v>2002</v>
       </c>
       <c r="H603" s="93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I603" s="93" t="s">
         <v>51</v>
@@ -31760,7 +31743,7 @@
     </row>
     <row r="604" spans="1:27" ht="26">
       <c r="A604" s="97" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B604" s="97">
         <v>-4</v>
@@ -31771,7 +31754,7 @@
       <c r="D604" s="97"/>
       <c r="E604" s="97"/>
       <c r="F604" s="107" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G604" s="97">
         <v>2002</v>
@@ -31877,7 +31860,7 @@
         <v>184</v>
       </c>
       <c r="J606" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K606" s="3" t="s">
         <v>709</v>
@@ -31901,7 +31884,7 @@
     </row>
     <row r="607" spans="1:27" ht="26">
       <c r="A607" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B607" s="2">
         <v>0</v>
@@ -31912,7 +31895,7 @@
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
       <c r="F607" s="107" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G607" s="97">
         <v>2002</v>
@@ -31965,13 +31948,13 @@
         <v>2002</v>
       </c>
       <c r="H608" s="97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I608" s="97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J608" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K608" s="3" t="s">
         <v>713</v>
@@ -32012,13 +31995,13 @@
         <v>2002</v>
       </c>
       <c r="H609" s="97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I609" s="97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J609" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K609" s="3" t="s">
         <v>714</v>
@@ -32059,13 +32042,13 @@
         <v>2024</v>
       </c>
       <c r="H610" s="93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I610" s="93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J610" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K610" s="3" t="s">
         <v>716</v>
@@ -32250,10 +32233,10 @@
         <v>117</v>
       </c>
       <c r="I614" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J614" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K614" s="3" t="s">
         <v>720</v>
@@ -32300,7 +32283,7 @@
         <v>184</v>
       </c>
       <c r="J615" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K615" s="3" t="s">
         <v>723</v>
@@ -32347,7 +32330,7 @@
         <v>184</v>
       </c>
       <c r="J616" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K616" s="3" t="s">
         <v>723</v>
@@ -32394,7 +32377,7 @@
         <v>184</v>
       </c>
       <c r="J617" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K617" s="3" t="s">
         <v>723</v>
@@ -32441,7 +32424,7 @@
         <v>184</v>
       </c>
       <c r="J618" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K618" s="3" t="s">
         <v>723</v>
@@ -32488,7 +32471,7 @@
         <v>184</v>
       </c>
       <c r="J619" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K619" s="3" t="s">
         <v>723</v>
@@ -32535,7 +32518,7 @@
         <v>184</v>
       </c>
       <c r="J620" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K620" s="3" t="s">
         <v>723</v>
@@ -32588,7 +32571,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="18">
+    <row r="622" spans="1:27" ht="14">
       <c r="A622" s="2" t="s">
         <v>729</v>
       </c>
@@ -32600,7 +32583,7 @@
       </c>
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
-      <c r="F622" s="144" t="s">
+      <c r="F622" s="2" t="s">
         <v>924</v>
       </c>
       <c r="G622" s="11">
@@ -32699,7 +32682,7 @@
         <v>2002</v>
       </c>
       <c r="H624" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I624" s="2" t="s">
         <v>115</v>
@@ -32818,7 +32801,7 @@
         <v>2023</v>
       </c>
       <c r="H627" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I627" s="2" t="s">
         <v>30</v>
@@ -33003,13 +32986,13 @@
         <v>2002</v>
       </c>
       <c r="H632" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I632" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J632" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K632" s="3"/>
       <c r="L632" s="2"/>
@@ -33054,7 +33037,7 @@
         <v>51</v>
       </c>
       <c r="J633" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K633" s="3" t="s">
         <v>742</v>
@@ -33101,7 +33084,7 @@
         <v>51</v>
       </c>
       <c r="J634" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K634" s="3"/>
       <c r="L634" s="2"/>
@@ -33146,7 +33129,7 @@
         <v>51</v>
       </c>
       <c r="J635" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K635" s="3"/>
       <c r="L635" s="2"/>
@@ -33191,7 +33174,7 @@
         <v>51</v>
       </c>
       <c r="J636" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K636" s="3" t="s">
         <v>742</v>
@@ -33260,7 +33243,7 @@
     </row>
     <row r="638" spans="1:27" ht="28">
       <c r="A638" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B638" s="2">
         <v>9.5</v>
@@ -33271,7 +33254,7 @@
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
       <c r="F638" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G638" s="11">
         <v>2002</v>
@@ -33330,7 +33313,7 @@
         <v>51</v>
       </c>
       <c r="J639" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K639" s="3"/>
       <c r="L639" s="2"/>
@@ -33352,7 +33335,7 @@
     </row>
     <row r="640" spans="1:27" ht="14">
       <c r="A640" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B640" s="2">
         <v>9.5</v>
@@ -33363,7 +33346,7 @@
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
       <c r="F640" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G640" s="11">
         <v>2002</v>
@@ -33375,7 +33358,7 @@
         <v>184</v>
       </c>
       <c r="J640" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K640" s="3"/>
       <c r="L640" s="2"/>
@@ -33420,7 +33403,7 @@
         <v>51</v>
       </c>
       <c r="J641" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K641" s="3"/>
       <c r="L641" s="2"/>
@@ -33465,7 +33448,7 @@
         <v>51</v>
       </c>
       <c r="J642" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K642" s="3"/>
       <c r="L642" s="2"/>
@@ -33487,7 +33470,7 @@
     </row>
     <row r="643" spans="1:27" ht="42">
       <c r="A643" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B643" s="2">
         <v>9.5</v>
@@ -33510,7 +33493,7 @@
         <v>184</v>
       </c>
       <c r="J643" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K643" s="32" t="s">
         <v>749</v>
@@ -33557,7 +33540,7 @@
         <v>51</v>
       </c>
       <c r="J644" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K644" s="3"/>
       <c r="L644" s="2"/>
@@ -33602,7 +33585,7 @@
         <v>51</v>
       </c>
       <c r="J645" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K645" s="3"/>
       <c r="L645" s="2"/>
@@ -33694,7 +33677,7 @@
         <v>51</v>
       </c>
       <c r="J647" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K647" s="3"/>
       <c r="L647" s="2"/>
@@ -33739,7 +33722,7 @@
         <v>51</v>
       </c>
       <c r="J648" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K648" s="3"/>
       <c r="L648" s="2"/>
@@ -33761,7 +33744,7 @@
     </row>
     <row r="649" spans="1:27" ht="28">
       <c r="A649" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B649" s="2">
         <v>9.5</v>
@@ -33772,7 +33755,7 @@
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
       <c r="F649" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G649" s="11">
         <v>2002</v>
@@ -33808,7 +33791,7 @@
     </row>
     <row r="650" spans="1:27" ht="28">
       <c r="A650" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B650" s="2">
         <v>9.5</v>
@@ -33831,7 +33814,7 @@
         <v>184</v>
       </c>
       <c r="J650" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K650" s="32" t="s">
         <v>755</v>
@@ -33855,7 +33838,7 @@
     </row>
     <row r="651" spans="1:27" ht="28">
       <c r="A651" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B651" s="2">
         <v>9.5</v>
@@ -33866,7 +33849,7 @@
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
       <c r="F651" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G651" s="11">
         <v>2002</v>
@@ -33919,13 +33902,13 @@
         <v>2002</v>
       </c>
       <c r="H652" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I652" s="25" t="s">
         <v>184</v>
       </c>
       <c r="J652" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K652" s="3"/>
       <c r="L652" s="2"/>
@@ -33947,7 +33930,7 @@
     </row>
     <row r="653" spans="1:27" ht="14">
       <c r="A653" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B653" s="2">
         <v>10</v>
@@ -33958,7 +33941,7 @@
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
       <c r="F653" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G653" s="11">
         <v>2024</v>
@@ -33970,7 +33953,7 @@
         <v>184</v>
       </c>
       <c r="J653" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K653" s="3" t="s">
         <v>757</v>
@@ -34064,7 +34047,7 @@
         <v>51</v>
       </c>
       <c r="J655" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K655" s="3"/>
       <c r="L655" s="2"/>
@@ -34086,7 +34069,7 @@
     </row>
     <row r="656" spans="1:27" ht="28">
       <c r="A656" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B656" s="2">
         <v>9.5</v>
@@ -34097,7 +34080,7 @@
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
       <c r="F656" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G656" s="11">
         <v>2002</v>
@@ -34150,13 +34133,13 @@
         <v>2002</v>
       </c>
       <c r="H657" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I657" s="32" t="s">
         <v>184</v>
       </c>
       <c r="J657" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K657" s="34"/>
       <c r="L657" s="2"/>
@@ -34178,7 +34161,7 @@
     </row>
     <row r="658" spans="1:27" ht="28">
       <c r="A658" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B658" s="2">
         <v>10</v>
@@ -34189,7 +34172,7 @@
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
       <c r="F658" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G658" s="11">
         <v>2002</v>
@@ -34225,7 +34208,7 @@
     </row>
     <row r="659" spans="1:27" ht="39">
       <c r="A659" s="110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B659" s="1">
         <v>10</v>
@@ -34235,7 +34218,9 @@
       </c>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
-      <c r="F659" s="103"/>
+      <c r="F659" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="G659" s="11">
         <v>2024</v>
       </c>
@@ -34246,7 +34231,7 @@
         <v>184</v>
       </c>
       <c r="J659" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K659" s="3" t="s">
         <v>761</v>
@@ -34270,7 +34255,7 @@
     </row>
     <row r="660" spans="1:27" ht="28">
       <c r="A660" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B660" s="2">
         <v>10</v>
@@ -34281,7 +34266,7 @@
       <c r="D660" s="2"/>
       <c r="E660" s="2"/>
       <c r="F660" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G660" s="11">
         <v>2002</v>
@@ -34334,13 +34319,13 @@
         <v>2002</v>
       </c>
       <c r="H661" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I661" s="32" t="s">
         <v>184</v>
       </c>
       <c r="J661" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K661" s="34" t="s">
         <v>762</v>
@@ -34428,13 +34413,13 @@
         <v>2019</v>
       </c>
       <c r="H663" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I663" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J663" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K663" s="34" t="s">
         <v>767</v>
@@ -34475,13 +34460,13 @@
         <v>2011</v>
       </c>
       <c r="H664" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I664" s="32" t="s">
         <v>36</v>
       </c>
       <c r="J664" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K664" s="34" t="s">
         <v>768</v>
@@ -35104,12 +35089,12 @@
         <v>35</v>
       </c>
       <c r="I678" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J678" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K678" s="44" t="s">
+      <c r="K678" s="46" t="s">
         <v>772</v>
       </c>
       <c r="L678" s="2"/>
@@ -35199,9 +35184,9 @@
         <v>30</v>
       </c>
       <c r="J680" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K680" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K680" s="46" t="s">
         <v>775</v>
       </c>
       <c r="L680" s="2"/>
@@ -35348,7 +35333,7 @@
     </row>
     <row r="684" spans="1:27" ht="14">
       <c r="A684" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B684" s="2">
         <v>-1</v>
@@ -35359,7 +35344,7 @@
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G684" s="11">
         <v>2009</v>
@@ -35449,7 +35434,7 @@
         <v>51</v>
       </c>
       <c r="J686" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K686" s="3" t="s">
         <v>787</v>
@@ -35496,7 +35481,7 @@
         <v>51</v>
       </c>
       <c r="J687" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K687" s="3" t="s">
         <v>789</v>
@@ -35605,7 +35590,7 @@
         <v>184</v>
       </c>
       <c r="J690" s="2" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="K690" s="2" t="s">
         <v>793</v>
@@ -35936,10 +35921,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="120" t="s">
         <v>801</v>
@@ -35951,10 +35936,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="127" t="s">
         <v>813</v>
@@ -36083,10 +36068,10 @@
         <v>21</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="120" t="s">
         <v>801</v>
@@ -36251,10 +36236,10 @@
         <v>32</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" s="129">
         <v>2020</v>
@@ -36345,10 +36330,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D48" s="126">
         <v>2002</v>
@@ -36362,10 +36347,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="119" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D49" s="126">
         <v>2002</v>
@@ -36484,10 +36469,10 @@
         <v>128</v>
       </c>
       <c r="B57" s="119" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D57" s="126">
         <v>2002</v>
@@ -36634,10 +36619,10 @@
         <v>138</v>
       </c>
       <c r="B67" s="119" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D67" s="126">
         <v>2002</v>
@@ -36681,10 +36666,10 @@
         <v>141</v>
       </c>
       <c r="B70" s="119" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D70" s="126">
         <v>2002</v>
@@ -36852,10 +36837,10 @@
         <v>152</v>
       </c>
       <c r="B81" s="119" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D81" s="123">
         <v>2023</v>
@@ -36869,7 +36854,7 @@
         <v>153</v>
       </c>
       <c r="B82" s="119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C82" s="20"/>
       <c r="D82" s="123">
@@ -38420,10 +38405,10 @@
         <v>74</v>
       </c>
       <c r="B177" s="137" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D177" s="138">
         <v>2016</v>
@@ -39031,10 +39016,10 @@
         <v>6</v>
       </c>
       <c r="B216" s="137" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D216" s="126">
         <v>2002</v>
@@ -39117,7 +39102,7 @@
         <v>920</v>
       </c>
       <c r="C221" s="91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D221" s="126">
         <v>2002</v>
@@ -39180,10 +39165,10 @@
         <v>14</v>
       </c>
       <c r="B225" s="137" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D225" s="126">
         <v>2002</v>
@@ -39197,7 +39182,7 @@
         <v>15</v>
       </c>
       <c r="B226" s="137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C226" s="91" t="s">
         <v>748</v>
@@ -39214,10 +39199,10 @@
         <v>16</v>
       </c>
       <c r="B227" s="137" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D227" s="126">
         <v>2002</v>
@@ -39308,10 +39293,10 @@
         <v>20</v>
       </c>
       <c r="B233" s="137" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D233" s="126">
         <v>2002</v>
@@ -39340,10 +39325,10 @@
         <v>22</v>
       </c>
       <c r="B235" s="137" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D235" s="126">
         <v>2002</v>
@@ -39357,10 +39342,10 @@
         <v>23</v>
       </c>
       <c r="B236" s="137" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D236" s="126">
         <v>2002</v>
@@ -39440,7 +39425,7 @@
         <v>28</v>
       </c>
       <c r="B241" s="137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C241" s="91" t="s">
         <v>754</v>
